--- a/validation_other_hs.xlsx
+++ b/validation_other_hs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liviosilva-muller/Documents/GitHub/amazondef/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4D9C2C-5E22-594D-9383-E880B603ACAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320DC5CB-F7C4-6140-8C50-CC0B2CC6FDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="471">
   <si>
     <t>AM2</t>
   </si>
@@ -1445,13 +1445,16 @@
   </si>
   <si>
     <t>0.2148134915230750.2817429703451730.4975554482825950.398294031994613</t>
+  </si>
+  <si>
+    <t>0111</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1468,6 +1471,19 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1499,7 +1515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1523,6 +1539,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1841,13 +1863,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K118" sqref="K118"/>
+      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="4"/>
-    <col min="2" max="2" width="73.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="89.83203125" style="12" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" style="5" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" style="5" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" style="5" hidden="1" customWidth="1"/>
@@ -1857,14 +1879,15 @@
     <col min="9" max="9" width="20.83203125" style="9" customWidth="1"/>
     <col min="10" max="10" width="17.5" style="2" customWidth="1"/>
     <col min="11" max="11" width="19" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5" style="4" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" style="5" customWidth="1"/>
     <col min="13" max="13" width="14.83203125" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="4"/>
+    <col min="14" max="14" width="0" style="4" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -1894,28 +1917,28 @@
       <c r="K1" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="10" t="s">
         <v>465</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="210" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>194</v>
+        <v>8</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="C2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
@@ -1924,76 +1947,73 @@
         <v>0</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2"/>
-      <c r="L2" s="9" t="s">
-        <v>444</v>
+        <v>437</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>437</v>
       </c>
       <c r="M2" s="4" t="b">
         <f>IF(I2=H2, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="168" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>195</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>198</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="K3"/>
-      <c r="L3" s="9" t="s">
-        <v>437</v>
+        <v>438</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>438</v>
       </c>
       <c r="M3" s="4" t="b">
         <f>IF(I3=H3, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="147" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>197</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -2002,27 +2022,28 @@
         <v>0</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4"/>
-      <c r="L4" s="9" t="s">
-        <v>437</v>
+      <c r="K4" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>445</v>
       </c>
       <c r="M4" s="4" t="b">
         <f>IF(I4=H4, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="168" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>200</v>
+        <v>15</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>203</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -2034,33 +2055,31 @@
         <v>0</v>
       </c>
       <c r="F5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5"/>
-      <c r="L5" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="M5" s="4" t="b">
         <f>IF(I5=H5, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="189" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>201</v>
+        <v>23</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -2069,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -2078,33 +2097,34 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6"/>
-      <c r="L6" s="9" t="s">
-        <v>437</v>
+        <v>443</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>440</v>
       </c>
       <c r="M6" s="4" t="b">
         <f>IF(I6=H6, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="187" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="168" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>202</v>
+        <v>30</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -2116,31 +2136,25 @@
         <v>0</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="K7" t="s">
-        <v>451</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>445</v>
       </c>
       <c r="M7" s="4" t="b">
         <f>IF(I7=H7, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="105" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>204</v>
+        <v>32</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
@@ -2152,33 +2166,37 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8"/>
-      <c r="L8" s="9" t="s">
-        <v>437</v>
+        <v>444</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>444</v>
       </c>
       <c r="M8" s="4" t="b">
         <f>IF(I8=H8, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="273" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>205</v>
+        <v>36</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -2199,24 +2217,25 @@
         <v>441</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9"/>
-      <c r="L9" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>445</v>
       </c>
       <c r="M9" s="4" t="b">
         <f>IF(I9=H9, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="147" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>206</v>
+        <v>37</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>225</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -2237,104 +2256,97 @@
         <v>437</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="K10"/>
-      <c r="L10" s="9" t="s">
-        <v>437</v>
+        <v>440</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>440</v>
       </c>
       <c r="M10" s="4" t="b">
         <f>IF(I10=H10, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="204" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="252" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>207</v>
+        <v>39</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="C11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
       </c>
       <c r="F11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11"/>
-      <c r="L11" s="9" t="s">
-        <v>442</v>
+        <v>437</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="M11" s="4" t="b">
         <f>IF(I11=H11, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="126" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>208</v>
+        <v>41</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="C12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="K12"/>
-      <c r="L12" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>445</v>
       </c>
       <c r="M12" s="4" t="b">
         <f>IF(I12=H12, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="210" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>209</v>
+        <v>43</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>231</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -2346,80 +2358,76 @@
         <v>0</v>
       </c>
       <c r="F13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13"/>
-      <c r="L13" s="9" t="s">
-        <v>437</v>
+        <v>439</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>439</v>
       </c>
       <c r="M13" s="4" t="b">
         <f>IF(I13=H13, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="168" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>210</v>
+        <v>49</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>237</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14"/>
-      <c r="L14" s="9" t="s">
-        <v>442</v>
+        <v>437</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="M14" s="4" t="b">
         <f>IF(I14=H14, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="204" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="210" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>212</v>
+        <v>50</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>238</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
       </c>
       <c r="D15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -2428,30 +2436,28 @@
         <v>0</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15"/>
-      <c r="L15" s="9" t="s">
-        <v>441</v>
+        <v>437</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>440</v>
       </c>
       <c r="M15" s="4" t="b">
         <f>IF(I15=H15, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="231" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>213</v>
+        <v>52</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>240</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -2460,36 +2466,34 @@
         <v>0</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16"/>
-      <c r="L16" s="9" t="s">
-        <v>441</v>
+        <v>448</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>448</v>
       </c>
       <c r="M16" s="4" t="b">
         <f>IF(I16=H16, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="221" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="357" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>214</v>
+        <v>53</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>241</v>
       </c>
       <c r="C17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
@@ -2504,146 +2508,145 @@
         <v>0</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="J17" s="4"/>
-      <c r="K17"/>
-      <c r="L17" s="9" t="s">
-        <v>444</v>
+        <v>446</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>446</v>
       </c>
       <c r="M17" s="4" t="b">
         <f>IF(I17=H17, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="147" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>215</v>
+        <v>54</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="C18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18"/>
-      <c r="L18" s="9" t="s">
-        <v>444</v>
+      <c r="J18" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>442</v>
       </c>
       <c r="M18" s="4" t="b">
         <f>IF(I18=H18, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="84" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>216</v>
+        <v>55</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>243</v>
       </c>
       <c r="C19" s="3">
-        <v>1</v>
+        <v>0.32615431041793486</v>
       </c>
       <c r="D19" s="3">
-        <v>0</v>
+        <v>0.30399624110229162</v>
       </c>
       <c r="E19" s="3">
-        <v>0</v>
+        <v>0.49791700121478533</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
+        <v>0.25370026294591597</v>
       </c>
       <c r="G19" s="2">
-        <v>0</v>
+        <v>-2.8536208992903767E-2</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19"/>
-      <c r="L19" s="9" t="s">
-        <v>444</v>
+        <v>437</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>437</v>
       </c>
       <c r="M19" s="4" t="b">
         <f>IF(I19=H19, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="84" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>217</v>
+        <v>56</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>244</v>
       </c>
       <c r="C20" s="3">
-        <v>0</v>
+        <v>0.21481349152307516</v>
       </c>
       <c r="D20" s="3">
-        <v>1</v>
+        <v>0.28174297034517259</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>0.49755544828259479</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>0.39829403199461311</v>
       </c>
       <c r="G20" s="2">
-        <v>0</v>
+        <v>8.7223077022741791E-2</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>441</v>
+        <v>469</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="K20"/>
-      <c r="L20" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>440</v>
       </c>
       <c r="M20" s="4" t="b">
         <f>IF(I20=H20, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="147" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>219</v>
+        <v>57</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>245</v>
       </c>
       <c r="C21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -2658,29 +2661,25 @@
         <v>0</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="K21"/>
-      <c r="L21" s="9" t="s">
-        <v>437</v>
+        <v>442</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>444</v>
       </c>
       <c r="M21" s="4" t="b">
         <f>IF(I21=H21, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="105" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>221</v>
+        <v>65</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
@@ -2701,26 +2700,25 @@
         <v>437</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="K22"/>
-      <c r="L22" s="9" t="s">
-        <v>437</v>
+        <v>444</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>444</v>
       </c>
       <c r="M22" s="4" t="b">
         <f>IF(I22=H22, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>222</v>
+        <v>67</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>255</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
@@ -2729,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -2738,38 +2736,37 @@
         <v>0</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="K23"/>
-      <c r="L23" s="9" t="s">
-        <v>437</v>
+        <v>446</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>446</v>
       </c>
       <c r="M23" s="4" t="b">
         <f>IF(I23=H23, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="147" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>223</v>
+        <v>69</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>257</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
       </c>
       <c r="D24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -2778,27 +2775,28 @@
         <v>0</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="J24" s="4"/>
-      <c r="K24"/>
-      <c r="L24" s="9" t="s">
-        <v>441</v>
+        <v>437</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>437</v>
       </c>
       <c r="M24" s="4" t="b">
         <f>IF(I24=H24, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="168" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>226</v>
+        <v>70</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>258</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
@@ -2810,35 +2808,37 @@
         <v>0</v>
       </c>
       <c r="F25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="K25"/>
-      <c r="L25" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="L25" s="5" t="s">
         <v>441</v>
       </c>
       <c r="M25" s="4" t="b">
         <f>IF(I25=H25, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="189" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>228</v>
+        <v>71</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>259</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
@@ -2859,26 +2859,25 @@
         <v>439</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="K26"/>
-      <c r="L26" s="9" t="s">
-        <v>439</v>
+        <v>442</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>442</v>
       </c>
       <c r="M26" s="4" t="b">
         <f>IF(I26=H26, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="105" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>230</v>
+        <v>73</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>261</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
@@ -2887,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -2896,27 +2895,22 @@
         <v>0</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="J27" s="4"/>
-      <c r="K27"/>
-      <c r="L27" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>437</v>
       </c>
       <c r="M27" s="4" t="b">
         <f>IF(I27=H27, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="357" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>232</v>
+        <v>74</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>262</v>
       </c>
       <c r="C28" s="3">
         <v>0</v>
@@ -2937,28 +2931,28 @@
         <v>440</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="K28" t="s">
-        <v>453</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>440</v>
+        <v>447</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>447</v>
       </c>
       <c r="M28" s="4" t="b">
         <f>IF(I28=H28, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="323" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="105" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>233</v>
+        <v>79</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C29" s="3">
         <v>0</v>
@@ -2970,39 +2964,40 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="J29" s="4"/>
-      <c r="K29"/>
-      <c r="L29" s="9" t="s">
-        <v>446</v>
+        <v>437</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>437</v>
       </c>
       <c r="M29" s="4" t="b">
         <f>IF(I29=H29, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="231" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>234</v>
+        <v>80</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>268</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
       </c>
       <c r="D30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -3014,38 +3009,34 @@
         <v>0</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="K30"/>
-      <c r="L30" s="9" t="s">
-        <v>437</v>
+      <c r="L30" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="M30" s="4" t="b">
         <f>IF(I30=H30, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="238" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>235</v>
+        <v>84</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>272</v>
       </c>
       <c r="C31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
@@ -3054,29 +3045,25 @@
         <v>0</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="J31" s="4"/>
-      <c r="K31" t="s">
-        <v>454</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>447</v>
+        <v>437</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="M31" s="4" t="b">
         <f>IF(I31=H31, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="204" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="294" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>236</v>
+        <v>86</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>274</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
@@ -3097,27 +3084,25 @@
         <v>440</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="J32" s="4"/>
-      <c r="K32"/>
-      <c r="L32" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="L32" s="5" t="s">
         <v>440</v>
       </c>
       <c r="M32" s="4" t="b">
         <f>IF(I32=H32, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="126" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>239</v>
+        <v>89</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>277</v>
       </c>
       <c r="C33" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
@@ -3132,38 +3117,31 @@
         <v>0</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="J33" s="4"/>
-      <c r="K33" t="s">
-        <v>455</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>444</v>
+        <v>437</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>437</v>
       </c>
       <c r="M33" s="4" t="b">
         <f>IF(I33=H33, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="168" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>246</v>
+        <v>90</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>278</v>
       </c>
       <c r="C34" s="3">
         <v>0</v>
       </c>
       <c r="D34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
@@ -3172,35 +3150,34 @@
         <v>0</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="K34"/>
-      <c r="L34" s="9" t="s">
-        <v>437</v>
+        <v>443</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>470</v>
       </c>
       <c r="M34" s="4" t="b">
         <f>IF(I34=H34, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="221" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="273" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>247</v>
+        <v>96</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>284</v>
       </c>
       <c r="C35" s="3">
         <v>0</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -3212,27 +3189,28 @@
         <v>0</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J35" s="4"/>
-      <c r="K35"/>
-      <c r="L35" s="9" t="s">
-        <v>437</v>
+        <v>439</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>448</v>
       </c>
       <c r="M35" s="4" t="b">
         <f>IF(I35=H35, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="189" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>248</v>
+        <v>98</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>286</v>
       </c>
       <c r="C36" s="3">
         <v>0</v>
@@ -3241,44 +3219,43 @@
         <v>0</v>
       </c>
       <c r="E36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="2">
         <v>0</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="J36" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="K36"/>
-      <c r="L36" s="9" t="s">
+      <c r="J36" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="L36" s="5" t="s">
         <v>439</v>
       </c>
       <c r="M36" s="4" t="b">
         <f>IF(I36=H36, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="221" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="252" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>249</v>
+        <v>99</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>287</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
       </c>
       <c r="D37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="3">
         <v>0</v>
@@ -3290,29 +3267,28 @@
         <v>0</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="K37"/>
-      <c r="L37" s="9" t="s">
-        <v>437</v>
+        <v>440</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>440</v>
       </c>
       <c r="M37" s="4" t="b">
         <f>IF(I37=H37, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="63" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>250</v>
+        <v>103</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>291</v>
       </c>
       <c r="C38" s="3">
         <v>0</v>
@@ -3333,62 +3309,61 @@
         <v>441</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="J38" s="4"/>
-      <c r="K38"/>
-      <c r="L38" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="L38" s="5" t="s">
         <v>441</v>
       </c>
       <c r="M38" s="4" t="b">
         <f>IF(I38=H38, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="105" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>251</v>
+        <v>104</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>292</v>
       </c>
       <c r="C39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="3">
         <v>0</v>
       </c>
       <c r="E39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="2">
         <v>0</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="J39" s="4"/>
-      <c r="K39"/>
-      <c r="L39" s="9" t="s">
-        <v>440</v>
+        <v>444</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>444</v>
       </c>
       <c r="M39" s="4" t="b">
         <f>IF(I39=H39, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="357" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>252</v>
+        <v>109</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>297</v>
       </c>
       <c r="C40" s="3">
         <v>0</v>
@@ -3400,33 +3375,34 @@
         <v>0</v>
       </c>
       <c r="F40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="2">
         <v>0</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J40" s="4"/>
-      <c r="K40"/>
-      <c r="L40" s="9" t="s">
-        <v>437</v>
+        <v>442</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>448</v>
       </c>
       <c r="M40" s="4" t="b">
         <f>IF(I40=H40, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="189" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>254</v>
+        <v>112</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>300</v>
       </c>
       <c r="C41" s="3">
         <v>0</v>
@@ -3447,33 +3423,34 @@
         <v>440</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="J41" s="4"/>
-      <c r="K41"/>
-      <c r="L41" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="L41" s="5" t="s">
         <v>440</v>
       </c>
       <c r="M41" s="4" t="b">
         <f>IF(I41=H41, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="210" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>256</v>
+        <v>113</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>301</v>
       </c>
       <c r="C42" s="3">
         <v>0</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -3482,76 +3459,73 @@
         <v>0</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J42" s="4"/>
-      <c r="K42"/>
-      <c r="L42" s="9" t="s">
-        <v>437</v>
+        <v>441</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>445</v>
       </c>
       <c r="M42" s="4" t="b">
         <f>IF(I42=H42, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="147" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>260</v>
+        <v>119</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>307</v>
       </c>
       <c r="C43" s="3">
         <v>0</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" s="2">
         <v>0</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="J43" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="K43"/>
-      <c r="L43" s="9" t="s">
-        <v>439</v>
+      <c r="J43" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>440</v>
       </c>
       <c r="M43" s="4" t="b">
         <f>IF(I43=H43, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="126" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>263</v>
+        <v>121</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>309</v>
       </c>
       <c r="C44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -3560,33 +3534,37 @@
         <v>0</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="J44" s="4"/>
-      <c r="K44"/>
-      <c r="L44" s="9" t="s">
-        <v>440</v>
+      <c r="J44" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>447</v>
       </c>
       <c r="M44" s="4" t="b">
         <f>IF(I44=H44, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="42" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>264</v>
+        <v>125</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>313</v>
       </c>
       <c r="C45" s="3">
         <v>0</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -3598,29 +3576,31 @@
         <v>0</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="J45" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="K45"/>
-      <c r="L45" s="9" t="s">
+      <c r="J45" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="L45" s="5" t="s">
         <v>437</v>
       </c>
       <c r="M45" s="4" t="b">
         <f>IF(I45=H45, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="210" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>265</v>
+        <v>126</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>314</v>
       </c>
       <c r="C46" s="3">
         <v>0</v>
@@ -3632,35 +3612,31 @@
         <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" s="2">
         <v>0</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="K46"/>
-      <c r="L46" s="9" t="s">
-        <v>448</v>
+        <v>437</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="M46" s="4" t="b">
         <f>IF(I46=H46, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="231" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>266</v>
+        <v>129</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>317</v>
       </c>
       <c r="C47" s="3">
         <v>0</v>
@@ -3672,82 +3648,79 @@
         <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" s="2">
         <v>0</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="K47"/>
-      <c r="L47" s="9" t="s">
-        <v>439</v>
+        <v>444</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>437</v>
       </c>
       <c r="M47" s="4" t="b">
         <f>IF(I47=H47, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="168" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>269</v>
+        <v>134</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>322</v>
       </c>
       <c r="C48" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" s="2">
         <v>0</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="J48" s="4"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9" t="s">
-        <v>449</v>
+        <v>441</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="M48" s="4" t="b">
         <f>IF(I48=H48, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="357" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>270</v>
+        <v>137</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>325</v>
       </c>
       <c r="C49" s="3">
         <v>0</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -3756,37 +3729,31 @@
         <v>0</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="K49" t="s">
-        <v>457</v>
-      </c>
-      <c r="L49" s="9" t="s">
-        <v>437</v>
+        <v>441</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>445</v>
       </c>
       <c r="M49" s="4" t="b">
         <f>IF(I49=H49, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="356" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="231" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>271</v>
+        <v>138</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>326</v>
       </c>
       <c r="C50" s="3">
         <v>0</v>
       </c>
       <c r="D50" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" s="3">
         <v>0</v>
@@ -3795,36 +3762,34 @@
         <v>0</v>
       </c>
       <c r="G50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="J50" s="4"/>
-      <c r="K50"/>
-      <c r="L50" s="9" t="s">
-        <v>446</v>
+        <v>437</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="M50" s="4" t="b">
         <f>IF(I50=H50, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="189" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>273</v>
+        <v>139</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>327</v>
       </c>
       <c r="C51" s="3">
         <v>0</v>
       </c>
       <c r="D51" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" s="3">
         <v>0</v>
@@ -3836,69 +3801,64 @@
         <v>0</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I51" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="J51" s="4"/>
-      <c r="K51" t="s">
-        <v>455</v>
-      </c>
-      <c r="L51" s="9" t="s">
-        <v>441</v>
+      <c r="K51" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>437</v>
       </c>
       <c r="M51" s="4" t="b">
         <f>IF(I51=H51, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="189" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>275</v>
+        <v>140</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>328</v>
       </c>
       <c r="C52" s="3">
         <v>0</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="2">
         <v>0</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="K52"/>
-      <c r="L52" s="9" t="s">
-        <v>437</v>
+        <v>439</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>448</v>
       </c>
       <c r="M52" s="4" t="b">
         <f>IF(I52=H52, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="189" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>276</v>
+        <v>141</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>329</v>
       </c>
       <c r="C53" s="3">
         <v>0</v>
@@ -3919,68 +3879,76 @@
         <v>439</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="J53" s="4"/>
-      <c r="K53"/>
-      <c r="L53" s="9" t="s">
-        <v>439</v>
+        <v>448</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>448</v>
       </c>
       <c r="M53" s="4" t="b">
         <f>IF(I53=H53, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="221" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="273" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>279</v>
+        <v>143</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>331</v>
       </c>
       <c r="C54" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="3">
         <v>1</v>
       </c>
       <c r="E54" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="2">
         <v>0</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="J54" s="4"/>
-      <c r="K54"/>
-      <c r="L54" s="9" t="s">
-        <v>445</v>
+        <v>442</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>449</v>
       </c>
       <c r="M54" s="4" t="b">
         <f>IF(I54=H54, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="231" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>280</v>
+        <v>144</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>332</v>
       </c>
       <c r="C55" s="3">
         <v>0</v>
       </c>
       <c r="D55" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" s="3">
         <v>0</v>
@@ -3992,27 +3960,25 @@
         <v>0</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="J55" s="4"/>
-      <c r="K55"/>
-      <c r="L55" s="9" t="s">
-        <v>437</v>
+      <c r="L55" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="M55" s="4" t="b">
         <f>IF(I55=H55, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>281</v>
+        <v>145</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>333</v>
       </c>
       <c r="C56" s="3">
         <v>0</v>
@@ -4033,30 +3999,34 @@
         <v>437</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J56" s="4"/>
-      <c r="K56"/>
-      <c r="L56" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="L56" s="5" t="s">
         <v>437</v>
       </c>
       <c r="M56" s="4" t="b">
         <f>IF(I56=H56, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="63" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>282</v>
+        <v>146</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>334</v>
       </c>
       <c r="C57" s="3">
         <v>0</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -4068,27 +4038,25 @@
         <v>0</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I57" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="J57" s="4"/>
-      <c r="K57"/>
-      <c r="L57" s="9" t="s">
+      <c r="L57" s="5" t="s">
         <v>437</v>
       </c>
       <c r="M57" s="4" t="b">
         <f>IF(I57=H57, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="126" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>283</v>
+        <v>147</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>335</v>
       </c>
       <c r="C58" s="3">
         <v>0</v>
@@ -4097,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -4106,29 +4074,28 @@
         <v>0</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J58" s="4"/>
-      <c r="K58" t="s">
-        <v>458</v>
-      </c>
-      <c r="L58" s="9" t="s">
-        <v>437</v>
+        <v>443</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="M58" s="4" t="b">
         <f>IF(I58=H58, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="147" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>285</v>
+        <v>155</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>343</v>
       </c>
       <c r="C59" s="3">
         <v>0</v>
@@ -4140,33 +4107,34 @@
         <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" s="2">
         <v>0</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="J59" s="4"/>
-      <c r="K59"/>
-      <c r="L59" s="9" t="s">
-        <v>439</v>
+        <v>441</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>437</v>
       </c>
       <c r="M59" s="4" t="b">
         <f>IF(I59=H59, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="168" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>288</v>
+        <v>157</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>345</v>
       </c>
       <c r="C60" s="3">
         <v>0</v>
@@ -4175,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -4184,29 +4152,31 @@
         <v>0</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="J60" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="K60"/>
-      <c r="L60" s="9" t="s">
+      <c r="J60" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="L60" s="5" t="s">
         <v>437</v>
       </c>
       <c r="M60" s="4" t="b">
         <f>IF(I60=H60, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="210" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>289</v>
+        <v>158</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>346</v>
       </c>
       <c r="C61" s="3">
         <v>0</v>
@@ -4215,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -4224,65 +4194,61 @@
         <v>0</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="I61" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="J61" s="4"/>
-      <c r="K61"/>
-      <c r="L61" s="9" t="s">
+      <c r="L61" s="5" t="s">
         <v>437</v>
       </c>
       <c r="M61" s="4" t="b">
         <f>IF(I61=H61, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="147" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>290</v>
+        <v>166</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>354</v>
       </c>
       <c r="C62" s="3">
         <v>0</v>
       </c>
       <c r="D62" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" s="2">
         <v>0</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="J62" s="4"/>
-      <c r="K62"/>
-      <c r="L62" s="9" t="s">
-        <v>441</v>
+        <v>448</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="M62" s="4" t="b">
         <f>IF(I62=H62, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="105" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>293</v>
+        <v>173</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>361</v>
       </c>
       <c r="C63" s="3">
         <v>0</v>
@@ -4303,30 +4269,31 @@
         <v>437</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J63" s="4"/>
-      <c r="K63"/>
-      <c r="L63" s="9" t="s">
-        <v>437</v>
+        <v>439</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>439</v>
       </c>
       <c r="M63" s="4" t="b">
         <f>IF(I63=H63, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="189" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>294</v>
+        <v>175</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>363</v>
       </c>
       <c r="C64" s="3">
         <v>0</v>
       </c>
       <c r="D64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" s="3">
         <v>0</v>
@@ -4338,30 +4305,28 @@
         <v>0</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J64" s="4"/>
-      <c r="K64"/>
-      <c r="L64" s="9" t="s">
-        <v>437</v>
+        <v>448</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>448</v>
       </c>
       <c r="M64" s="4" t="b">
         <f>IF(I64=H64, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="306" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="126" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>295</v>
+        <v>177</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>365</v>
       </c>
       <c r="C65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" s="3">
         <v>0</v>
@@ -4376,29 +4341,25 @@
         <v>0</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="I65" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="J65" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="K65"/>
-      <c r="L65" s="9" t="s">
-        <v>437</v>
+      <c r="L65" s="5" t="s">
+        <v>444</v>
       </c>
       <c r="M65" s="4" t="b">
         <f>IF(I65=H65, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="147" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>296</v>
+        <v>178</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>366</v>
       </c>
       <c r="C66" s="3">
         <v>0</v>
@@ -4407,45 +4368,43 @@
         <v>0</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" s="2">
         <v>0</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="I66" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="J66" s="4"/>
-      <c r="K66"/>
-      <c r="L66" s="9" t="s">
-        <v>437</v>
+      <c r="L66" s="5" t="s">
+        <v>439</v>
       </c>
       <c r="M66" s="4" t="b">
         <f>IF(I66=H66, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="231" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>298</v>
+        <v>179</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>367</v>
       </c>
       <c r="C67" s="3">
         <v>0</v>
       </c>
       <c r="D67" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="3">
         <v>0</v>
@@ -4454,38 +4413,37 @@
         <v>0</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="K67"/>
-      <c r="L67" s="9" t="s">
-        <v>437</v>
+        <v>448</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>448</v>
       </c>
       <c r="M67" s="4" t="b">
         <f>IF(I67=H67, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="204" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="273" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>299</v>
+        <v>182</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>370</v>
       </c>
       <c r="C68" s="3">
         <v>0</v>
       </c>
       <c r="D68" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" s="3">
         <v>0</v>
@@ -4494,27 +4452,25 @@
         <v>0</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="I68" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="J68" s="4"/>
-      <c r="K68"/>
-      <c r="L68" s="9" t="s">
-        <v>437</v>
+      <c r="L68" s="5" t="s">
+        <v>445</v>
       </c>
       <c r="M68" s="4" t="b">
         <f>IF(I68=H68, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="187" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="84" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>302</v>
+        <v>183</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>371</v>
       </c>
       <c r="C69" s="3">
         <v>0</v>
@@ -4532,27 +4488,28 @@
         <v>1</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="J69" s="4"/>
-      <c r="K69"/>
-      <c r="L69" s="9" t="s">
-        <v>446</v>
+        <v>441</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>437</v>
       </c>
       <c r="M69" s="4" t="b">
         <f>IF(I69=H69, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="189" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>303</v>
+        <v>185</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>373</v>
       </c>
       <c r="C70" s="3">
         <v>0</v>
@@ -4564,37 +4521,31 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="2">
         <v>0</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="K70" t="s">
-        <v>458</v>
-      </c>
-      <c r="L70" s="9" t="s">
-        <v>437</v>
+        <v>448</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>439</v>
       </c>
       <c r="M70" s="4" t="b">
         <f>IF(I70=H70, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="147" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>304</v>
+        <v>187</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>375</v>
       </c>
       <c r="C71" s="3">
         <v>0</v>
@@ -4606,37 +4557,31 @@
         <v>0</v>
       </c>
       <c r="F71" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" s="2">
         <v>0</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="K71" t="s">
-        <v>455</v>
-      </c>
-      <c r="L71" s="9" t="s">
-        <v>448</v>
+        <v>437</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>437</v>
       </c>
       <c r="M71" s="4" t="b">
         <f>IF(I71=H71, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="187" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="126" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>305</v>
+        <v>189</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>377</v>
       </c>
       <c r="C72" s="3">
         <v>0</v>
@@ -4645,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" s="3">
         <v>0</v>
@@ -4654,27 +4599,25 @@
         <v>0</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="I72" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="J72" s="4"/>
-      <c r="K72"/>
-      <c r="L72" s="9" t="s">
-        <v>437</v>
+      <c r="L72" s="5" t="s">
+        <v>440</v>
       </c>
       <c r="M72" s="4" t="b">
         <f>IF(I72=H72, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="357" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>306</v>
+        <v>190</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>378</v>
       </c>
       <c r="C73" s="3">
         <v>0</v>
@@ -4695,26 +4638,25 @@
         <v>437</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="K73"/>
-      <c r="L73" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="L73" s="5" t="s">
         <v>437</v>
       </c>
       <c r="M73" s="4" t="b">
         <f>IF(I73=H73, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="168" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>308</v>
+        <v>191</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>379</v>
       </c>
       <c r="C74" s="3">
         <v>0</v>
@@ -4723,36 +4665,34 @@
         <v>0</v>
       </c>
       <c r="E74" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" s="2">
         <v>0</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="J74" s="4"/>
-      <c r="K74"/>
-      <c r="L74" s="9" t="s">
-        <v>439</v>
+        <v>441</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>440</v>
       </c>
       <c r="M74" s="4" t="b">
         <f>IF(I74=H74, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="187" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="136" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>122</v>
+        <v>6</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>310</v>
+        <v>194</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
@@ -4785,12 +4725,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>311</v>
+        <v>195</v>
       </c>
       <c r="C76" s="3">
         <v>0</v>
@@ -4805,30 +4745,32 @@
         <v>0</v>
       </c>
       <c r="G76" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="J76" s="4"/>
+        <v>437</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>382</v>
+      </c>
       <c r="K76"/>
       <c r="L76" s="9" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="M76" s="4" t="b">
         <f>IF(I76=H76, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="119" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>312</v>
+        <v>197</v>
       </c>
       <c r="C77" s="3">
         <v>0</v>
@@ -4861,12 +4803,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="119" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>315</v>
+        <v>200</v>
       </c>
       <c r="C78" s="3">
         <v>0</v>
@@ -4878,33 +4820,33 @@
         <v>0</v>
       </c>
       <c r="F78" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" s="2">
         <v>0</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="J78" s="4"/>
       <c r="K78"/>
       <c r="L78" s="9" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M78" s="4" t="b">
         <f>IF(I78=H78, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>316</v>
+        <v>201</v>
       </c>
       <c r="C79" s="3">
         <v>0</v>
@@ -4919,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>437</v>
@@ -4937,12 +4879,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" ht="153" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>318</v>
+        <v>202</v>
       </c>
       <c r="C80" s="3">
         <v>0</v>
@@ -4951,44 +4893,46 @@
         <v>0</v>
       </c>
       <c r="E80" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" s="2">
         <v>0</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="J80" s="4"/>
+        <v>440</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>384</v>
+      </c>
       <c r="K80" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="L80" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M80" s="4" t="b">
         <f>IF(I80=H80, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>319</v>
+        <v>204</v>
       </c>
       <c r="C81" s="3">
         <v>0</v>
       </c>
       <c r="D81" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -5000,33 +4944,33 @@
         <v>0</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="J81" s="4"/>
       <c r="K81"/>
       <c r="L81" s="9" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M81" s="4" t="b">
         <f>IF(I81=H81, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="204" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" ht="136" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>320</v>
+        <v>205</v>
       </c>
       <c r="C82" s="3">
         <v>0</v>
       </c>
       <c r="D82" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" s="3">
         <v>0</v>
@@ -5038,27 +4982,27 @@
         <v>0</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="J82" s="4"/>
       <c r="K82"/>
       <c r="L82" s="9" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="M82" s="4" t="b">
         <f>IF(I82=H82, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="187" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" ht="153" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>321</v>
+        <v>206</v>
       </c>
       <c r="C83" s="3">
         <v>0</v>
@@ -5067,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -5076,111 +5020,107 @@
         <v>0</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="K83" t="s">
-        <v>454</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="K83"/>
       <c r="L83" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="M83" s="4" t="b">
         <f>IF(I83=H83, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" ht="170" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>323</v>
+        <v>207</v>
       </c>
       <c r="C84" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" s="3">
         <v>0</v>
       </c>
       <c r="F84" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" s="2">
         <v>0</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="J84" s="4"/>
       <c r="K84"/>
       <c r="L84" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M84" s="4" t="b">
         <f>IF(I84=H84, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>324</v>
+        <v>208</v>
       </c>
       <c r="C85" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" s="3">
         <v>0</v>
       </c>
       <c r="E85" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" s="2">
         <v>0</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="K85" t="s">
-        <v>460</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="K85"/>
       <c r="L85" s="9" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M85" s="4" t="b">
         <f>IF(I85=H85, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>330</v>
+        <v>209</v>
       </c>
       <c r="C86" s="3">
         <v>0</v>
@@ -5189,42 +5129,42 @@
         <v>0</v>
       </c>
       <c r="E86" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" s="3">
         <v>0</v>
       </c>
       <c r="G86" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J86" s="4"/>
       <c r="K86"/>
       <c r="L86" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="M86" s="4" t="b">
         <f>IF(I86=H86, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>336</v>
+        <v>210</v>
       </c>
       <c r="C87" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" s="3">
         <v>0</v>
@@ -5236,33 +5176,33 @@
         <v>0</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="J87" s="4"/>
       <c r="K87"/>
       <c r="L87" s="9" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="M87" s="4" t="b">
         <f>IF(I87=H87, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" ht="170" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>337</v>
+        <v>212</v>
       </c>
       <c r="C88" s="3">
         <v>0</v>
       </c>
       <c r="D88" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" s="3">
         <v>0</v>
@@ -5274,35 +5214,33 @@
         <v>0</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>402</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="J88" s="4"/>
       <c r="K88"/>
       <c r="L88" s="9" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="M88" s="4" t="b">
         <f>IF(I88=H88, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>338</v>
+        <v>213</v>
       </c>
       <c r="C89" s="3">
         <v>0</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -5314,30 +5252,30 @@
         <v>0</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="J89" s="4"/>
       <c r="K89"/>
       <c r="L89" s="9" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="M89" s="4" t="b">
         <f>IF(I89=H89, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="289" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" ht="170" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>339</v>
+        <v>214</v>
       </c>
       <c r="C90" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" s="3">
         <v>0</v>
@@ -5346,35 +5284,33 @@
         <v>0</v>
       </c>
       <c r="F90" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" s="2">
         <v>0</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>424</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="J90" s="4"/>
       <c r="K90"/>
       <c r="L90" s="9" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="M90" s="4" t="b">
         <f>IF(I90=H90, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>340</v>
+        <v>215</v>
       </c>
       <c r="C91" s="3">
         <v>1</v>
@@ -5397,9 +5333,7 @@
       <c r="I91" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="J91" s="4" t="s">
-        <v>425</v>
-      </c>
+      <c r="J91" s="4"/>
       <c r="K91"/>
       <c r="L91" s="9" t="s">
         <v>444</v>
@@ -5409,18 +5343,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="204" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>341</v>
+        <v>216</v>
       </c>
       <c r="C92" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" s="3">
         <v>0</v>
@@ -5432,27 +5366,27 @@
         <v>0</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="J92" s="4"/>
       <c r="K92"/>
       <c r="L92" s="9" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="M92" s="4" t="b">
         <f>IF(I92=H92, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" ht="119" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>342</v>
+        <v>217</v>
       </c>
       <c r="C93" s="3">
         <v>0</v>
@@ -5475,7 +5409,9 @@
       <c r="I93" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="J93" s="4"/>
+      <c r="J93" s="4" t="s">
+        <v>387</v>
+      </c>
       <c r="K93"/>
       <c r="L93" s="9" t="s">
         <v>441</v>
@@ -5485,12 +5421,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" ht="119" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>344</v>
+        <v>219</v>
       </c>
       <c r="C94" s="3">
         <v>0</v>
@@ -5505,18 +5441,20 @@
         <v>0</v>
       </c>
       <c r="G94" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="J94" s="4"/>
+        <v>437</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>388</v>
+      </c>
       <c r="K94"/>
       <c r="L94" s="9" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="M94" s="4" t="b">
         <f>IF(I94=H94, TRUE, FALSE)</f>
@@ -5525,10 +5463,10 @@
     </row>
     <row r="95" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>347</v>
+        <v>221</v>
       </c>
       <c r="C95" s="3">
         <v>0</v>
@@ -5537,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" s="3">
         <v>0</v>
@@ -5546,27 +5484,29 @@
         <v>0</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="J95" s="4"/>
+        <v>437</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>388</v>
+      </c>
       <c r="K95"/>
       <c r="L95" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="M95" s="4" t="b">
         <f>IF(I95=H95, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>348</v>
+        <v>222</v>
       </c>
       <c r="C96" s="3">
         <v>0</v>
@@ -5578,39 +5518,41 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" s="2">
         <v>0</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="J96" s="4"/>
+        <v>437</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>388</v>
+      </c>
       <c r="K96"/>
       <c r="L96" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M96" s="4" t="b">
         <f>IF(I96=H96, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>349</v>
+        <v>223</v>
       </c>
       <c r="C97" s="3">
         <v>0</v>
       </c>
       <c r="D97" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" s="3">
         <v>0</v>
@@ -5622,33 +5564,33 @@
         <v>0</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="J97" s="4"/>
       <c r="K97"/>
       <c r="L97" s="9" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="M97" s="4" t="b">
         <f>IF(I97=H97, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" ht="119" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>350</v>
+        <v>226</v>
       </c>
       <c r="C98" s="3">
         <v>0</v>
       </c>
       <c r="D98" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" s="3">
         <v>0</v>
@@ -5660,76 +5602,78 @@
         <v>0</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J98" s="4"/>
-      <c r="K98" t="s">
-        <v>455</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="K98"/>
       <c r="L98" s="9" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="M98" s="4" t="b">
         <f>IF(I98=H98, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" ht="136" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>351</v>
+        <v>228</v>
       </c>
       <c r="C99" s="3">
         <v>0</v>
       </c>
       <c r="D99" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" s="3">
         <v>0</v>
       </c>
       <c r="F99" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" s="2">
         <v>0</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="J99" s="4"/>
+        <v>439</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>387</v>
+      </c>
       <c r="K99"/>
       <c r="L99" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M99" s="4" t="b">
         <f>IF(I99=H99, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>352</v>
+        <v>230</v>
       </c>
       <c r="C100" s="3">
         <v>0</v>
       </c>
       <c r="D100" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -5738,38 +5682,36 @@
         <v>0</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="J100" s="4" t="s">
-        <v>427</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="J100" s="4"/>
       <c r="K100"/>
       <c r="L100" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M100" s="4" t="b">
         <f>IF(I100=H100, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>353</v>
+        <v>232</v>
       </c>
       <c r="C101" s="3">
         <v>0</v>
       </c>
       <c r="D101" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -5778,29 +5720,31 @@
         <v>0</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="J101" s="4"/>
+        <v>440</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>392</v>
+      </c>
       <c r="K101" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="L101" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M101" s="4" t="b">
         <f>IF(I101=H101, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" ht="272" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>355</v>
+        <v>233</v>
       </c>
       <c r="C102" s="3">
         <v>0</v>
@@ -5809,42 +5753,42 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="J102" s="4"/>
       <c r="K102"/>
       <c r="L102" s="9" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="M102" s="4" t="b">
         <f>IF(I102=H102, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" ht="119" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>356</v>
+        <v>234</v>
       </c>
       <c r="C103" s="3">
         <v>0</v>
       </c>
       <c r="D103" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103" s="3">
         <v>0</v>
@@ -5856,36 +5800,38 @@
         <v>0</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="J103" s="4"/>
+        <v>437</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>383</v>
+      </c>
       <c r="K103"/>
       <c r="L103" s="9" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M103" s="4" t="b">
         <f>IF(I103=H103, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" ht="204" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>357</v>
+        <v>235</v>
       </c>
       <c r="C104" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104" s="3">
         <v>0</v>
       </c>
       <c r="E104" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104" s="3">
         <v>0</v>
@@ -5894,36 +5840,38 @@
         <v>0</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="J104" s="4"/>
-      <c r="K104"/>
+      <c r="K104" t="s">
+        <v>454</v>
+      </c>
       <c r="L104" s="9" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="M104" s="4" t="b">
         <f>IF(I104=H104, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" ht="170" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>358</v>
+        <v>236</v>
       </c>
       <c r="C105" s="3">
         <v>0</v>
       </c>
       <c r="D105" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" s="3">
         <v>0</v>
@@ -5932,30 +5880,30 @@
         <v>0</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J105" s="4"/>
       <c r="K105"/>
       <c r="L105" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M105" s="4" t="b">
         <f>IF(I105=H105, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>359</v>
+        <v>239</v>
       </c>
       <c r="C106" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" s="3">
         <v>0</v>
@@ -5970,17 +5918,17 @@
         <v>0</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J106" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="K106"/>
+        <v>444</v>
+      </c>
+      <c r="J106" s="4"/>
+      <c r="K106" t="s">
+        <v>455</v>
+      </c>
       <c r="L106" s="9" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="M106" s="4" t="b">
         <f>IF(I106=H106, TRUE, FALSE)</f>
@@ -5989,10 +5937,10 @@
     </row>
     <row r="107" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>172</v>
+        <v>58</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>360</v>
+        <v>246</v>
       </c>
       <c r="C107" s="3">
         <v>0</v>
@@ -6015,7 +5963,9 @@
       <c r="I107" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="J107" s="4"/>
+      <c r="J107" s="4" t="s">
+        <v>387</v>
+      </c>
       <c r="K107"/>
       <c r="L107" s="9" t="s">
         <v>437</v>
@@ -6025,12 +5975,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" ht="187" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>174</v>
+        <v>59</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>362</v>
+        <v>247</v>
       </c>
       <c r="C108" s="3">
         <v>0</v>
@@ -6053,9 +6003,7 @@
       <c r="I108" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="J108" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="J108" s="4"/>
       <c r="K108"/>
       <c r="L108" s="9" t="s">
         <v>437</v>
@@ -6065,12 +6013,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="187" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" ht="119" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>176</v>
+        <v>60</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>364</v>
+        <v>248</v>
       </c>
       <c r="C109" s="3">
         <v>0</v>
@@ -6082,41 +6030,41 @@
         <v>0</v>
       </c>
       <c r="F109" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="K109"/>
       <c r="L109" s="9" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="M109" s="4" t="b">
         <f>IF(I109=H109, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="204" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" ht="187" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>180</v>
+        <v>61</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>368</v>
+        <v>249</v>
       </c>
       <c r="C110" s="3">
         <v>0</v>
       </c>
       <c r="D110" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110" s="3">
         <v>0</v>
@@ -6128,35 +6076,35 @@
         <v>0</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
       <c r="K110"/>
       <c r="L110" s="9" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M110" s="4" t="b">
         <f>IF(I110=H110, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" ht="136" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>181</v>
+        <v>62</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>369</v>
+        <v>250</v>
       </c>
       <c r="C111" s="3">
         <v>0</v>
       </c>
       <c r="D111" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111" s="3">
         <v>0</v>
@@ -6168,27 +6116,27 @@
         <v>0</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="J111" s="4"/>
       <c r="K111"/>
       <c r="L111" s="9" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="M111" s="4" t="b">
         <f>IF(I111=H111, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>372</v>
+        <v>251</v>
       </c>
       <c r="C112" s="3">
         <v>0</v>
@@ -6221,21 +6169,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>186</v>
+        <v>64</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>374</v>
+        <v>252</v>
       </c>
       <c r="C113" s="3">
         <v>0</v>
       </c>
       <c r="D113" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113" s="3">
         <v>0</v>
@@ -6244,27 +6192,27 @@
         <v>0</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="J113" s="4"/>
       <c r="K113"/>
       <c r="L113" s="9" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="M113" s="4" t="b">
         <f>IF(I113=H113, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>188</v>
+        <v>66</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>376</v>
+        <v>254</v>
       </c>
       <c r="C114" s="3">
         <v>0</v>
@@ -6273,41 +6221,39 @@
         <v>0</v>
       </c>
       <c r="E114" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114" s="2">
         <v>0</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="J114" s="4" t="s">
-        <v>433</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="J114" s="4"/>
       <c r="K114"/>
       <c r="L114" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M114" s="4" t="b">
         <f>IF(I114=H114, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="187" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>192</v>
+        <v>68</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>380</v>
+        <v>256</v>
       </c>
       <c r="C115" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115" s="3">
         <v>0</v>
@@ -6316,21 +6262,21 @@
         <v>0</v>
       </c>
       <c r="F115" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115" s="2">
         <v>0</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="J115" s="4"/>
       <c r="K115"/>
       <c r="L115" s="9" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="M115" s="4" t="b">
         <f>IF(I115=H115, TRUE, FALSE)</f>
@@ -6339,10 +6285,10 @@
     </row>
     <row r="116" spans="1:13" ht="136" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>193</v>
+        <v>72</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="C116" s="3">
         <v>0</v>
@@ -6354,35 +6300,35 @@
         <v>0</v>
       </c>
       <c r="F116" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" s="2">
         <v>0</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J116" s="4"/>
-      <c r="K116" t="s">
-        <v>458</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="K116"/>
       <c r="L116" s="9" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M116" s="4" t="b">
         <f>IF(I116=H116, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" ht="136" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>196</v>
+        <v>263</v>
       </c>
       <c r="C117" s="3">
         <v>0</v>
@@ -6403,55 +6349,64 @@
         <v>440</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>383</v>
+        <v>440</v>
+      </c>
+      <c r="J117" s="4"/>
+      <c r="K117"/>
+      <c r="L117" s="9" t="s">
+        <v>440</v>
       </c>
       <c r="M117" s="4" t="b">
         <f>IF(I117=H117, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>198</v>
+        <v>264</v>
       </c>
       <c r="C118" s="3">
         <v>0</v>
       </c>
       <c r="D118" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" s="3">
         <v>0</v>
       </c>
       <c r="F118" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118" s="2">
         <v>0</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="K118"/>
+      <c r="L118" s="9" t="s">
+        <v>437</v>
       </c>
       <c r="M118" s="4" t="b">
         <f>IF(I118=H118, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="119" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>199</v>
+        <v>265</v>
       </c>
       <c r="C119" s="3">
         <v>0</v>
@@ -6460,34 +6415,38 @@
         <v>1</v>
       </c>
       <c r="E119" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" s="2">
         <v>0</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="K119" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="K119"/>
+      <c r="L119" s="9" t="s">
+        <v>448</v>
       </c>
       <c r="M119" s="4" t="b">
         <f>IF(I119=H119, TRUE, FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="119" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c r="C120" s="3">
         <v>0</v>
@@ -6499,73 +6458,82 @@
         <v>0</v>
       </c>
       <c r="F120" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120" s="2">
         <v>0</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="K120"/>
+      <c r="L120" s="9" t="s">
+        <v>439</v>
       </c>
       <c r="M120" s="4" t="b">
         <f>IF(I120=H120, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="C121" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" s="2">
         <v>0</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>386</v>
+        <v>449</v>
+      </c>
+      <c r="J121" s="4"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="9" t="s">
+        <v>449</v>
       </c>
       <c r="M121" s="4" t="b">
         <f>IF(I121=H121, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="C122" s="3">
         <v>0</v>
       </c>
       <c r="D122" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" s="3">
         <v>0</v>
@@ -6574,22 +6542,31 @@
         <v>0</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="I122" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="K122" t="s">
+        <v>457</v>
+      </c>
+      <c r="L122" s="9" t="s">
         <v>437</v>
       </c>
       <c r="M122" s="4" t="b">
         <f>IF(I122=H122, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="306" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>220</v>
+        <v>271</v>
       </c>
       <c r="C123" s="3">
         <v>0</v>
@@ -6601,34 +6578,33 @@
         <v>0</v>
       </c>
       <c r="F123" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="J123" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="K123" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
+      </c>
+      <c r="J123" s="4"/>
+      <c r="K123"/>
+      <c r="L123" s="9" t="s">
+        <v>446</v>
       </c>
       <c r="M123" s="4" t="b">
         <f>IF(I123=H123, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" ht="221" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="C124" s="3">
         <v>0</v>
@@ -6649,22 +6625,26 @@
         <v>441</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>387</v>
+        <v>441</v>
+      </c>
+      <c r="J124" s="4"/>
+      <c r="K124" t="s">
+        <v>455</v>
+      </c>
+      <c r="L124" s="9" t="s">
+        <v>441</v>
       </c>
       <c r="M124" s="4" t="b">
         <f>IF(I124=H124, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="C125" s="3">
         <v>0</v>
@@ -6685,58 +6665,70 @@
         <v>437</v>
       </c>
       <c r="I125" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="K125"/>
+      <c r="L125" s="9" t="s">
+        <v>437</v>
       </c>
       <c r="M125" s="4" t="b">
         <f>IF(I125=H125, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" ht="187" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="C126" s="3">
         <v>0</v>
       </c>
       <c r="D126" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126" s="3">
         <v>0</v>
       </c>
       <c r="F126" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" s="2">
         <v>0</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>437</v>
+        <v>439</v>
+      </c>
+      <c r="J126" s="4"/>
+      <c r="K126"/>
+      <c r="L126" s="9" t="s">
+        <v>439</v>
       </c>
       <c r="M126" s="4" t="b">
         <f>IF(I126=H126, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="187" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="C127" s="3">
         <v>0</v>
       </c>
       <c r="D127" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127" s="3">
         <v>1</v>
@@ -6748,25 +6740,27 @@
         <v>0</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>391</v>
+        <v>445</v>
+      </c>
+      <c r="J127" s="4"/>
+      <c r="K127"/>
+      <c r="L127" s="9" t="s">
+        <v>445</v>
       </c>
       <c r="M127" s="4" t="b">
         <f>IF(I127=H127, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="236" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="C128" s="3">
         <v>0</v>
@@ -6778,31 +6772,39 @@
         <v>0</v>
       </c>
       <c r="F128" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" s="2">
         <v>0</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
+      </c>
+      <c r="I128" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="J128" s="4"/>
+      <c r="K128"/>
+      <c r="L128" s="9" t="s">
+        <v>437</v>
       </c>
       <c r="M128" s="4" t="b">
         <f>IF(I128=H128, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="C129" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D129" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129" s="3">
         <v>0</v>
@@ -6814,25 +6816,27 @@
         <v>0</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I129" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>393</v>
+      <c r="J129" s="4"/>
+      <c r="K129"/>
+      <c r="L129" s="9" t="s">
+        <v>437</v>
       </c>
       <c r="M129" s="4" t="b">
         <f>IF(I129=H129, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="C130" s="3">
         <v>0</v>
@@ -6841,7 +6845,7 @@
         <v>0</v>
       </c>
       <c r="E130" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" s="3">
         <v>0</v>
@@ -6850,55 +6854,67 @@
         <v>0</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I130" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="J130" s="4"/>
+      <c r="K130"/>
+      <c r="L130" s="9" t="s">
         <v>437</v>
       </c>
       <c r="M130" s="4" t="b">
         <f>IF(I130=H130, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="C131" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D131" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E131" s="3">
         <v>0</v>
       </c>
       <c r="F131" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131" s="2">
         <v>0</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>448</v>
+        <v>437</v>
+      </c>
+      <c r="J131" s="4"/>
+      <c r="K131" t="s">
+        <v>458</v>
+      </c>
+      <c r="L131" s="9" t="s">
+        <v>437</v>
       </c>
       <c r="M131" s="4" t="b">
         <f>IF(I131=H131, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" ht="272" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="136" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C132" s="3">
         <v>0</v>
@@ -6910,31 +6926,33 @@
         <v>0</v>
       </c>
       <c r="F132" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132" s="2">
         <v>0</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="I132" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="J132" s="2" t="s">
-        <v>394</v>
+        <v>439</v>
+      </c>
+      <c r="J132" s="4"/>
+      <c r="K132"/>
+      <c r="L132" s="9" t="s">
+        <v>439</v>
       </c>
       <c r="M132" s="4" t="b">
         <f>IF(I132=H132, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="C133" s="3">
         <v>0</v>
@@ -6943,106 +6961,117 @@
         <v>0</v>
       </c>
       <c r="E133" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133" s="2">
         <v>0</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I133" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="J133" s="2" t="s">
-        <v>389</v>
+        <v>437</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="K133"/>
+      <c r="L133" s="9" t="s">
+        <v>437</v>
       </c>
       <c r="M133" s="4" t="b">
         <f>IF(I133=H133, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="C134" s="3">
-        <v>0.32615431041793486</v>
+        <v>0</v>
       </c>
       <c r="D134" s="3">
-        <v>0.30399624110229162</v>
+        <v>0</v>
       </c>
       <c r="E134" s="3">
-        <v>0.49791700121478533</v>
+        <v>0</v>
       </c>
       <c r="F134" s="3">
-        <v>0.25370026294591597</v>
+        <v>0</v>
       </c>
       <c r="G134" s="2">
-        <v>-2.8536208992903767E-2</v>
+        <v>0</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>468</v>
+        <v>437</v>
       </c>
       <c r="I134" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="K134" s="1" t="s">
-        <v>456</v>
+      <c r="J134" s="4"/>
+      <c r="K134"/>
+      <c r="L134" s="9" t="s">
+        <v>437</v>
       </c>
       <c r="M134" s="4" t="b">
         <f>IF(I134=H134, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="119" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="C135" s="3">
-        <v>0.21481349152307516</v>
+        <v>0</v>
       </c>
       <c r="D135" s="3">
-        <v>0.28174297034517259</v>
+        <v>1</v>
       </c>
       <c r="E135" s="3">
-        <v>0.49755544828259479</v>
+        <v>0</v>
       </c>
       <c r="F135" s="3">
-        <v>0.39829403199461311</v>
+        <v>0</v>
       </c>
       <c r="G135" s="2">
-        <v>8.7223077022741791E-2</v>
+        <v>0</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>469</v>
+        <v>441</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
+      </c>
+      <c r="J135" s="4"/>
+      <c r="K135"/>
+      <c r="L135" s="9" t="s">
+        <v>441</v>
       </c>
       <c r="M135" s="4" t="b">
         <f>IF(I135=H135, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>245</v>
+        <v>293</v>
       </c>
       <c r="C136" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D136" s="3">
         <v>0</v>
@@ -7057,22 +7086,27 @@
         <v>0</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="I136" s="9" t="s">
-        <v>442</v>
+        <v>437</v>
+      </c>
+      <c r="J136" s="4"/>
+      <c r="K136"/>
+      <c r="L136" s="9" t="s">
+        <v>437</v>
       </c>
       <c r="M136" s="4" t="b">
         <f>IF(I136=H136, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="C137" s="3">
         <v>0</v>
@@ -7093,22 +7127,24 @@
         <v>437</v>
       </c>
       <c r="I137" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="J137" s="2" t="s">
-        <v>397</v>
+        <v>437</v>
+      </c>
+      <c r="J137" s="4"/>
+      <c r="K137"/>
+      <c r="L137" s="9" t="s">
+        <v>437</v>
       </c>
       <c r="M137" s="4" t="b">
         <f>IF(I137=H137, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" ht="388" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="255" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="C138" s="3">
         <v>0</v>
@@ -7117,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="E138" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138" s="3">
         <v>0</v>
@@ -7126,25 +7162,29 @@
         <v>0</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I138" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="J138" s="2" t="s">
-        <v>398</v>
+        <v>437</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="K138"/>
+      <c r="L138" s="9" t="s">
+        <v>437</v>
       </c>
       <c r="M138" s="4" t="b">
         <f>IF(I138=H138, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="C139" s="3">
         <v>0</v>
@@ -7153,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="E139" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" s="3">
         <v>0</v>
@@ -7162,64 +7202,67 @@
         <v>0</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I139" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>399</v>
+      <c r="J139" s="4"/>
+      <c r="K139"/>
+      <c r="L139" s="9" t="s">
+        <v>437</v>
       </c>
       <c r="M139" s="4" t="b">
         <f>IF(I139=H139, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="C140" s="3">
         <v>0</v>
       </c>
       <c r="D140" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E140" s="3">
         <v>0</v>
       </c>
       <c r="F140" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G140" s="2">
         <v>0</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="I140" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="J140" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="K140" s="1" t="s">
-        <v>454</v>
+        <v>437</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="K140"/>
+      <c r="L140" s="9" t="s">
+        <v>437</v>
       </c>
       <c r="M140" s="4" t="b">
         <f>IF(I140=H140, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="170" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="C141" s="3">
         <v>0</v>
@@ -7231,31 +7274,33 @@
         <v>0</v>
       </c>
       <c r="F141" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G141" s="2">
         <v>0</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I141" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="J141" s="2" t="s">
-        <v>400</v>
+        <v>437</v>
+      </c>
+      <c r="J141" s="4"/>
+      <c r="K141"/>
+      <c r="L141" s="9" t="s">
+        <v>437</v>
       </c>
       <c r="M141" s="4" t="b">
         <f>IF(I141=H141, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="153" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="C142" s="3">
         <v>0</v>
@@ -7270,22 +7315,30 @@
         <v>0</v>
       </c>
       <c r="G142" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>437</v>
+        <v>446</v>
+      </c>
+      <c r="I142" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="J142" s="4"/>
+      <c r="K142"/>
+      <c r="L142" s="9" t="s">
+        <v>446</v>
       </c>
       <c r="M142" s="4" t="b">
         <f>IF(I142=H142, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" ht="289" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="C143" s="3">
         <v>0</v>
@@ -7294,7 +7347,7 @@
         <v>0</v>
       </c>
       <c r="E143" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143" s="3">
         <v>0</v>
@@ -7303,34 +7356,37 @@
         <v>0</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I143" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="J143" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="K143" s="1" t="s">
-        <v>455</v>
+        <v>437</v>
+      </c>
+      <c r="J143" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="K143" t="s">
+        <v>458</v>
+      </c>
+      <c r="L143" s="9" t="s">
+        <v>437</v>
       </c>
       <c r="M143" s="4" t="b">
         <f>IF(I143=H143, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="C144" s="3">
         <v>0</v>
       </c>
       <c r="D144" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144" s="3">
         <v>0</v>
@@ -7342,31 +7398,37 @@
         <v>0</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="I144" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J144" s="2" t="s">
-        <v>404</v>
+        <v>448</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="K144" t="s">
+        <v>455</v>
+      </c>
+      <c r="L144" s="9" t="s">
+        <v>448</v>
       </c>
       <c r="M144" s="4" t="b">
         <f>IF(I144=H144, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="153" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="C145" s="3">
         <v>0</v>
       </c>
       <c r="D145" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E145" s="3">
         <v>0</v>
@@ -7378,28 +7440,33 @@
         <v>0</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I145" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="J145" s="4"/>
+      <c r="K145"/>
+      <c r="L145" s="9" t="s">
         <v>437</v>
       </c>
       <c r="M145" s="4" t="b">
         <f>IF(I145=H145, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" ht="323" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="C146" s="3">
         <v>0</v>
       </c>
       <c r="D146" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146" s="3">
         <v>0</v>
@@ -7411,22 +7478,29 @@
         <v>0</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I146" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="J146" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="K146"/>
+      <c r="L146" s="9" t="s">
         <v>437</v>
       </c>
       <c r="M146" s="4" t="b">
         <f>IF(I146=H146, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" ht="221" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="C147" s="3">
         <v>0</v>
@@ -7435,34 +7509,39 @@
         <v>0</v>
       </c>
       <c r="E147" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147" s="2">
         <v>0</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I147" s="9" t="s">
-        <v>437</v>
+        <v>439</v>
+      </c>
+      <c r="J147" s="4"/>
+      <c r="K147"/>
+      <c r="L147" s="9" t="s">
+        <v>439</v>
       </c>
       <c r="M147" s="4" t="b">
         <f>IF(I147=H147, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="153" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="C148" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148" s="3">
         <v>0</v>
@@ -7477,61 +7556,71 @@
         <v>0</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>437</v>
+        <v>444</v>
+      </c>
+      <c r="I148" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="J148" s="4"/>
+      <c r="K148"/>
+      <c r="L148" s="9" t="s">
+        <v>444</v>
       </c>
       <c r="M148" s="4" t="b">
         <f>IF(I148=H148, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="388" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="C149" s="3">
         <v>0</v>
       </c>
       <c r="D149" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" s="3">
         <v>0</v>
       </c>
       <c r="G149" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I149" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="K149" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
+      </c>
+      <c r="J149" s="4"/>
+      <c r="K149"/>
+      <c r="L149" s="9" t="s">
+        <v>446</v>
       </c>
       <c r="M149" s="4" t="b">
         <f>IF(I149=H149, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" ht="204" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="C150" s="3">
         <v>0</v>
       </c>
       <c r="D150" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E150" s="3">
         <v>0</v>
@@ -7543,25 +7632,27 @@
         <v>0</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I150" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="J150" s="2" t="s">
-        <v>406</v>
+        <v>437</v>
+      </c>
+      <c r="J150" s="4"/>
+      <c r="K150"/>
+      <c r="L150" s="9" t="s">
+        <v>437</v>
       </c>
       <c r="M150" s="4" t="b">
         <f>IF(I150=H150, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="C151" s="3">
         <v>0</v>
@@ -7570,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151" s="3">
         <v>0</v>
@@ -7579,31 +7670,33 @@
         <v>0</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I151" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="J151" s="2" t="s">
-        <v>407</v>
+        <v>437</v>
+      </c>
+      <c r="J151" s="4"/>
+      <c r="K151"/>
+      <c r="L151" s="9" t="s">
+        <v>437</v>
       </c>
       <c r="M151" s="4" t="b">
         <f>IF(I151=H151, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" ht="187" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="119" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="C152" s="3">
         <v>0</v>
       </c>
       <c r="D152" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E152" s="3">
         <v>0</v>
@@ -7612,97 +7705,108 @@
         <v>0</v>
       </c>
       <c r="G152" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I152" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="J152" s="2" t="s">
-        <v>408</v>
+        <v>437</v>
+      </c>
+      <c r="J152" s="4"/>
+      <c r="K152"/>
+      <c r="L152" s="9" t="s">
+        <v>437</v>
       </c>
       <c r="M152" s="4" t="b">
         <f>IF(I152=H152, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="C153" s="3">
         <v>0</v>
       </c>
       <c r="D153" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E153" s="3">
         <v>0</v>
       </c>
       <c r="F153" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G153" s="2">
         <v>0</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I153" s="9" t="s">
-        <v>437</v>
+        <v>439</v>
+      </c>
+      <c r="J153" s="4"/>
+      <c r="K153" t="s">
+        <v>458</v>
+      </c>
+      <c r="L153" s="9" t="s">
+        <v>439</v>
       </c>
       <c r="M153" s="4" t="b">
         <f>IF(I153=H153, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="119" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="C154" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D154" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154" s="3">
         <v>0</v>
       </c>
       <c r="F154" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G154" s="2">
         <v>0</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I154" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="J154" s="2" t="s">
-        <v>410</v>
+        <v>441</v>
+      </c>
+      <c r="J154" s="4"/>
+      <c r="K154"/>
+      <c r="L154" s="9" t="s">
+        <v>441</v>
       </c>
       <c r="M154" s="4" t="b">
         <f>IF(I154=H154, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="153" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="C155" s="3">
         <v>0</v>
@@ -7714,31 +7818,33 @@
         <v>0</v>
       </c>
       <c r="F155" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G155" s="2">
         <v>0</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I155" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="J155" s="2" t="s">
-        <v>411</v>
+        <v>437</v>
+      </c>
+      <c r="J155" s="4"/>
+      <c r="K155"/>
+      <c r="L155" s="9" t="s">
+        <v>437</v>
       </c>
       <c r="M155" s="4" t="b">
         <f>IF(I155=H155, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="153" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="C156" s="3">
         <v>0</v>
@@ -7759,22 +7865,28 @@
         <v>440</v>
       </c>
       <c r="I156" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J156" s="2" t="s">
-        <v>413</v>
+        <v>440</v>
+      </c>
+      <c r="J156" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="K156" t="s">
+        <v>454</v>
+      </c>
+      <c r="L156" s="9" t="s">
+        <v>440</v>
       </c>
       <c r="M156" s="4" t="b">
         <f>IF(I156=H156, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="C157" s="3">
         <v>0</v>
@@ -7783,7 +7895,7 @@
         <v>1</v>
       </c>
       <c r="E157" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157" s="3">
         <v>0</v>
@@ -7792,31 +7904,36 @@
         <v>0</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="I157" s="9" t="s">
         <v>441</v>
       </c>
+      <c r="J157" s="4"/>
+      <c r="K157"/>
+      <c r="L157" s="9" t="s">
+        <v>441</v>
+      </c>
       <c r="M157" s="4" t="b">
         <f>IF(I157=H157, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="136" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="C158" s="3">
         <v>0</v>
       </c>
       <c r="D158" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E158" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158" s="3">
         <v>0</v>
@@ -7825,34 +7942,40 @@
         <v>0</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I158" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="J158" s="2" t="s">
-        <v>416</v>
+        <v>440</v>
+      </c>
+      <c r="J158" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="K158" t="s">
+        <v>460</v>
+      </c>
+      <c r="L158" s="9" t="s">
+        <v>440</v>
       </c>
       <c r="M158" s="4" t="b">
         <f>IF(I158=H158, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="119" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="C159" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D159" s="3">
         <v>0</v>
       </c>
       <c r="E159" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" s="3">
         <v>0</v>
@@ -7861,28 +7984,27 @@
         <v>0</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="I159" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="J159" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="K159" s="1" t="s">
-        <v>458</v>
+      <c r="J159" s="4"/>
+      <c r="K159"/>
+      <c r="L159" s="9" t="s">
+        <v>440</v>
       </c>
       <c r="M159" s="4" t="b">
         <f>IF(I159=H159, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="136" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="C160" s="3">
         <v>0</v>
@@ -7894,40 +8016,39 @@
         <v>0</v>
       </c>
       <c r="F160" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G160" s="2">
         <v>0</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="I160" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J160" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="K160" s="1" t="s">
-        <v>459</v>
+        <v>448</v>
+      </c>
+      <c r="J160" s="4"/>
+      <c r="K160"/>
+      <c r="L160" s="9" t="s">
+        <v>448</v>
       </c>
       <c r="M160" s="4" t="b">
         <f>IF(I160=H160, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="C161" s="3">
         <v>0</v>
       </c>
       <c r="D161" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E161" s="3">
         <v>0</v>
@@ -7939,22 +8060,29 @@
         <v>0</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I161" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="J161" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="K161"/>
+      <c r="L161" s="9" t="s">
         <v>437</v>
       </c>
       <c r="M161" s="4" t="b">
         <f>IF(I161=H161, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="C162" s="3">
         <v>0</v>
@@ -7975,64 +8103,73 @@
         <v>437</v>
       </c>
       <c r="I162" s="9" t="s">
-        <v>444</v>
+        <v>437</v>
+      </c>
+      <c r="J162" s="4"/>
+      <c r="K162"/>
+      <c r="L162" s="9" t="s">
+        <v>437</v>
       </c>
       <c r="M162" s="4" t="b">
         <f>IF(I162=H162, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="238" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="C163" s="3">
         <v>0</v>
       </c>
       <c r="D163" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E163" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G163" s="2">
         <v>0</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="I163" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="K163" s="1" t="s">
-        <v>458</v>
+        <v>439</v>
+      </c>
+      <c r="J163" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="K163"/>
+      <c r="L163" s="9" t="s">
+        <v>439</v>
       </c>
       <c r="M163" s="4" t="b">
         <f>IF(I163=H163, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" ht="272" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="C164" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D164" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E164" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" s="3">
         <v>0</v>
@@ -8041,22 +8178,29 @@
         <v>0</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I164" s="9" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+      <c r="J164" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="K164"/>
+      <c r="L164" s="9" t="s">
+        <v>444</v>
       </c>
       <c r="M164" s="4" t="b">
         <f>IF(I164=H164, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" ht="187" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="170" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="C165" s="3">
         <v>0</v>
@@ -8077,25 +8221,30 @@
         <v>441</v>
       </c>
       <c r="I165" s="9" t="s">
-        <v>437</v>
+        <v>441</v>
+      </c>
+      <c r="J165" s="4"/>
+      <c r="K165"/>
+      <c r="L165" s="9" t="s">
+        <v>441</v>
       </c>
       <c r="M165" s="4" t="b">
         <f>IF(I165=H165, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="C166" s="3">
         <v>0</v>
       </c>
       <c r="D166" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166" s="3">
         <v>0</v>
@@ -8107,58 +8256,65 @@
         <v>0</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I166" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="K166" s="1" t="s">
-        <v>461</v>
+      <c r="J166" s="4"/>
+      <c r="K166"/>
+      <c r="L166" s="9" t="s">
+        <v>441</v>
       </c>
       <c r="M166" s="4" t="b">
         <f>IF(I166=H166, TRUE, FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:13" ht="136" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="C167" s="3">
         <v>0</v>
       </c>
       <c r="D167" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E167" s="3">
         <v>0</v>
       </c>
       <c r="F167" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G167" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I167" s="9" t="s">
-        <v>439</v>
+        <v>446</v>
+      </c>
+      <c r="J167" s="4"/>
+      <c r="K167"/>
+      <c r="L167" s="9" t="s">
+        <v>446</v>
       </c>
       <c r="M167" s="4" t="b">
         <f>IF(I167=H167, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="C168" s="3">
         <v>0</v>
@@ -8167,43 +8323,42 @@
         <v>0</v>
       </c>
       <c r="E168" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G168" s="2">
         <v>0</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I168" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="J168" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="K168" s="1" t="s">
-        <v>462</v>
+        <v>440</v>
+      </c>
+      <c r="J168" s="4"/>
+      <c r="K168"/>
+      <c r="L168" s="9" t="s">
+        <v>440</v>
       </c>
       <c r="M168" s="4" t="b">
         <f>IF(I168=H168, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" ht="204" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="C169" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D169" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E169" s="3">
         <v>0</v>
@@ -8215,34 +8370,33 @@
         <v>0</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="I169" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="J169" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="K169" s="1" t="s">
-        <v>463</v>
+        <v>439</v>
+      </c>
+      <c r="J169" s="4"/>
+      <c r="K169"/>
+      <c r="L169" s="9" t="s">
+        <v>439</v>
       </c>
       <c r="M169" s="4" t="b">
         <f>IF(I169=H169, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" ht="187" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="C170" s="3">
         <v>0</v>
       </c>
       <c r="D170" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E170" s="3">
         <v>0</v>
@@ -8254,22 +8408,27 @@
         <v>0</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I170" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="J170" s="4"/>
+      <c r="K170"/>
+      <c r="L170" s="9" t="s">
         <v>437</v>
       </c>
       <c r="M170" s="4" t="b">
         <f>IF(I170=H170, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" ht="340" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="C171" s="3">
         <v>0</v>
@@ -8290,25 +8449,26 @@
         <v>437</v>
       </c>
       <c r="I171" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="J171" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="K171" s="1" t="s">
-        <v>454</v>
+        <v>437</v>
+      </c>
+      <c r="J171" s="4"/>
+      <c r="K171" t="s">
+        <v>455</v>
+      </c>
+      <c r="L171" s="9" t="s">
+        <v>437</v>
       </c>
       <c r="M171" s="4" t="b">
         <f>IF(I171=H171, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="C172" s="3">
         <v>0</v>
@@ -8329,28 +8489,33 @@
         <v>441</v>
       </c>
       <c r="I172" s="9" t="s">
-        <v>437</v>
+        <v>441</v>
+      </c>
+      <c r="J172" s="4"/>
+      <c r="K172"/>
+      <c r="L172" s="9" t="s">
+        <v>441</v>
       </c>
       <c r="M172" s="4" t="b">
         <f>IF(I172=H172, TRUE, FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="C173" s="3">
         <v>0</v>
       </c>
       <c r="D173" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E173" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173" s="3">
         <v>0</v>
@@ -8359,31 +8524,35 @@
         <v>0</v>
       </c>
       <c r="H173" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I173" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="J173" s="2" t="s">
-        <v>423</v>
+        <v>441</v>
+      </c>
+      <c r="J173" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="K173"/>
+      <c r="L173" s="9" t="s">
+        <v>441</v>
       </c>
       <c r="M173" s="4" t="b">
         <f>IF(I173=H173, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C174" s="3">
         <v>0</v>
       </c>
       <c r="D174" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E174" s="3">
         <v>0</v>
@@ -8395,25 +8564,29 @@
         <v>0</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I174" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="K174" s="1" t="s">
+      <c r="J174" s="4"/>
+      <c r="K174" t="s">
         <v>461</v>
+      </c>
+      <c r="L174" s="9" t="s">
+        <v>441</v>
       </c>
       <c r="M174" s="4" t="b">
         <f>IF(I174=H174, TRUE, FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:13" ht="119" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="C175" s="3">
         <v>0</v>
@@ -8434,34 +8607,33 @@
         <v>440</v>
       </c>
       <c r="I175" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J175" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="K175" s="1" t="s">
-        <v>464</v>
+        <v>440</v>
+      </c>
+      <c r="J175" s="4"/>
+      <c r="K175"/>
+      <c r="L175" s="9" t="s">
+        <v>440</v>
       </c>
       <c r="M175" s="4" t="b">
         <f>IF(I175=H175, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C176" s="3">
         <v>0</v>
       </c>
       <c r="D176" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E176" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176" s="3">
         <v>0</v>
@@ -8470,22 +8642,27 @@
         <v>0</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I176" s="9" t="s">
-        <v>437</v>
+        <v>441</v>
+      </c>
+      <c r="J176" s="4"/>
+      <c r="K176"/>
+      <c r="L176" s="9" t="s">
+        <v>441</v>
       </c>
       <c r="M176" s="4" t="b">
         <f>IF(I176=H176, TRUE, FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C177" s="3">
         <v>0</v>
@@ -8494,37 +8671,42 @@
         <v>0</v>
       </c>
       <c r="E177" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177" s="2">
         <v>0</v>
       </c>
       <c r="H177" s="5" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I177" s="9" t="s">
-        <v>448</v>
+        <v>437</v>
+      </c>
+      <c r="J177" s="4"/>
+      <c r="K177"/>
+      <c r="L177" s="9" t="s">
+        <v>437</v>
       </c>
       <c r="M177" s="4" t="b">
         <f>IF(I177=H177, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C178" s="3">
         <v>0</v>
       </c>
       <c r="D178" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E178" s="3">
         <v>0</v>
@@ -8536,31 +8718,33 @@
         <v>0</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I178" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="J178" s="2" t="s">
-        <v>429</v>
+        <v>441</v>
+      </c>
+      <c r="J178" s="4"/>
+      <c r="K178"/>
+      <c r="L178" s="9" t="s">
+        <v>441</v>
       </c>
       <c r="M178" s="4" t="b">
         <f>IF(I178=H178, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C179" s="3">
         <v>0</v>
       </c>
       <c r="D179" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E179" s="3">
         <v>0</v>
@@ -8572,25 +8756,32 @@
         <v>0</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I179" s="9" t="s">
-        <v>448</v>
+        <v>437</v>
+      </c>
+      <c r="J179" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="K179"/>
+      <c r="L179" s="9" t="s">
+        <v>437</v>
       </c>
       <c r="M179" s="4" t="b">
         <f>IF(I179=H179, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C180" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D180" s="3">
         <v>0</v>
@@ -8605,22 +8796,27 @@
         <v>0</v>
       </c>
       <c r="H180" s="5" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="I180" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="J180" s="4"/>
+      <c r="K180"/>
+      <c r="L180" s="9" t="s">
         <v>437</v>
       </c>
       <c r="M180" s="4" t="b">
         <f>IF(I180=H180, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C181" s="3">
         <v>0</v>
@@ -8629,67 +8825,78 @@
         <v>0</v>
       </c>
       <c r="E181" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G181" s="2">
         <v>0</v>
       </c>
       <c r="H181" s="5" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="I181" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="J181" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="K181"/>
+      <c r="L181" s="9" t="s">
         <v>437</v>
       </c>
       <c r="M181" s="4" t="b">
         <f>IF(I181=H181, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" ht="153" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C182" s="3">
         <v>0</v>
       </c>
       <c r="D182" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E182" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182" s="3">
         <v>0</v>
       </c>
       <c r="G182" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I182" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="J182" s="2" t="s">
-        <v>407</v>
+        <v>446</v>
+      </c>
+      <c r="J182" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="K182"/>
+      <c r="L182" s="9" t="s">
+        <v>446</v>
       </c>
       <c r="M182" s="4" t="b">
         <f>IF(I182=H182, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" ht="204" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" ht="170" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C183" s="3">
         <v>0</v>
@@ -8698,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="E183" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" s="3">
         <v>0</v>
@@ -8707,22 +8914,29 @@
         <v>0</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="I183" s="9" t="s">
-        <v>437</v>
+        <v>441</v>
+      </c>
+      <c r="J183" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="K183"/>
+      <c r="L183" s="9" t="s">
+        <v>441</v>
       </c>
       <c r="M183" s="4" t="b">
         <f>IF(I183=H183, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C184" s="3">
         <v>0</v>
@@ -8737,28 +8951,30 @@
         <v>0</v>
       </c>
       <c r="G184" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184" s="5" t="s">
         <v>437</v>
       </c>
       <c r="I184" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="K184" s="1" t="s">
-        <v>461</v>
+        <v>437</v>
+      </c>
+      <c r="J184" s="4"/>
+      <c r="K184"/>
+      <c r="L184" s="9" t="s">
+        <v>437</v>
       </c>
       <c r="M184" s="4" t="b">
         <f>IF(I184=H184, TRUE, FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:13" ht="136" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C185" s="3">
         <v>0</v>
@@ -8767,31 +8983,36 @@
         <v>0</v>
       </c>
       <c r="E185" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G185" s="2">
         <v>0</v>
       </c>
       <c r="H185" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I185" s="9" t="s">
-        <v>448</v>
+        <v>440</v>
+      </c>
+      <c r="J185" s="4"/>
+      <c r="K185"/>
+      <c r="L185" s="9" t="s">
+        <v>440</v>
       </c>
       <c r="M185" s="4" t="b">
         <f>IF(I185=H185, TRUE, FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:13" ht="119" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C186" s="3">
         <v>0</v>
@@ -8800,7 +9021,7 @@
         <v>1</v>
       </c>
       <c r="E186" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" s="3">
         <v>0</v>
@@ -8809,22 +9030,27 @@
         <v>0</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="I186" s="9" t="s">
-        <v>437</v>
+        <v>445</v>
+      </c>
+      <c r="J186" s="4"/>
+      <c r="K186"/>
+      <c r="L186" s="9" t="s">
+        <v>445</v>
       </c>
       <c r="M186" s="4" t="b">
         <f>IF(I186=H186, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="119" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C187" s="3">
         <v>0</v>
@@ -8833,34 +9059,41 @@
         <v>0</v>
       </c>
       <c r="E187" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G187" s="2">
         <v>0</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I187" s="9" t="s">
-        <v>437</v>
+        <v>439</v>
+      </c>
+      <c r="J187" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="K187"/>
+      <c r="L187" s="9" t="s">
+        <v>439</v>
       </c>
       <c r="M187" s="4" t="b">
         <f>IF(I187=H187, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" ht="153" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C188" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D188" s="3">
         <v>0</v>
@@ -8869,31 +9102,33 @@
         <v>0</v>
       </c>
       <c r="F188" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G188" s="2">
         <v>0</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="I188" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="K188" s="1" t="s">
-        <v>461</v>
+        <v>442</v>
+      </c>
+      <c r="J188" s="4"/>
+      <c r="K188"/>
+      <c r="L188" s="9" t="s">
+        <v>442</v>
       </c>
       <c r="M188" s="4" t="b">
         <f>IF(I188=H188, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C189" s="3">
         <v>0</v>
@@ -8902,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="E189" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189" s="3">
         <v>0</v>
@@ -8911,20 +9146,27 @@
         <v>0</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I189" s="9" t="s">
-        <v>441</v>
+        <v>437</v>
+      </c>
+      <c r="J189" s="4"/>
+      <c r="K189" t="s">
+        <v>458</v>
+      </c>
+      <c r="L189" s="9" t="s">
+        <v>437</v>
       </c>
       <c r="M189" s="4" t="b">
         <f>IF(I189=H189, TRUE, FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:N189" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N189">
-      <sortCondition descending="1" ref="M1:M189"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M189">
+      <sortCondition ref="M1:M189"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/validation_other_hs.xlsx
+++ b/validation_other_hs.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liviosilva-muller/Documents/GitHub/amazondef/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320DC5CB-F7C4-6140-8C50-CC0B2CC6FDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D47884-2ADB-054C-9DC7-324D6BFC3EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$189</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$189</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="284">
   <si>
     <t>AM2</t>
   </si>
@@ -55,570 +55,6 @@
     <t>false_positives</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ja manifestei outras ocasioes manter forcas armadas prontas exercer papel constitucional garantindo soberania interesses patrios cooperando insercao politicoestrategica pais junto comunidade internacional sao fundamentais presente futuro brasil nesse contexto reafirmo compromisso garantir capacidade operativa armas fator indispensavel desenvolvimento pais tal visao faz parte estrategia nacional defesa balizara obtencao meios equipamentos necessarios atuarmos ainda eficiencia atlantico sul pontos significativos territorio especialmente amazonia verdade forca naval brasileira ja vem passando periodo notavel evolucao propiciada recentes investimentos feitos visite site secretaria httpwwwimprens</t>
   </si>
   <si>
@@ -1448,6 +884,9 @@
   </si>
   <si>
     <t>0111</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -1515,7 +954,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1543,6 +982,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1863,30 +1309,31 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="4"/>
+    <col min="1" max="1" width="8.83203125" style="14"/>
     <col min="2" max="2" width="89.83203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" style="5" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="5" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="5" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="4" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18" style="4" customWidth="1"/>
     <col min="8" max="8" width="20.5" style="5" customWidth="1"/>
     <col min="9" max="9" width="20.83203125" style="9" customWidth="1"/>
     <col min="10" max="10" width="17.5" style="2" customWidth="1"/>
     <col min="11" max="11" width="19" style="1" customWidth="1"/>
     <col min="12" max="12" width="19.6640625" style="5" customWidth="1"/>
     <col min="13" max="13" width="14.83203125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="0" style="4" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="4"/>
+    <col min="14" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="6"/>
+      <c r="A1" s="13" t="s">
+        <v>283</v>
+      </c>
       <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1906,39 +1353,39 @@
         <v>5</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>435</v>
+        <v>247</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>436</v>
+        <v>248</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>434</v>
+        <v>246</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>467</v>
+        <v>279</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>465</v>
+        <v>277</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="210" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>196</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
@@ -1947,70 +1394,73 @@
         <v>0</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>440</v>
+        <v>256</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>437</v>
+        <v>256</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2"/>
+      <c r="L2" s="9" t="s">
+        <v>256</v>
       </c>
       <c r="M2" s="4" t="b">
         <f>IF(I2=H2, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="168" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>198</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>448</v>
+        <v>249</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>438</v>
+        <v>249</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="M3" s="4" t="b">
         <f>IF(I3=H3, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="147" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="210" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
+        <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>199</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -2022,28 +1472,28 @@
         <v>0</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>445</v>
+        <v>252</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>450</v>
+        <v>249</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>445</v>
+        <v>249</v>
       </c>
       <c r="M4" s="4" t="b">
         <f>IF(I4=H4, TRUE, FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="168" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>203</v>
+    <row r="5" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -2061,64 +1511,63 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>441</v>
+        <v>249</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5"/>
+      <c r="L5" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="M5" s="4" t="b">
         <f>IF(I5=H5, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="189" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="168" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
+        <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>440</v>
+        <v>260</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>386</v>
+        <v>250</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>440</v>
+        <v>250</v>
       </c>
       <c r="M6" s="4" t="b">
         <f>IF(I6=H6, TRUE, FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="168" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>30</v>
+    <row r="7" spans="1:13" ht="147" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
+        <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -2136,25 +1585,28 @@
         <v>0</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>445</v>
+        <v>257</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>437</v>
+        <v>249</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>445</v>
+        <v>257</v>
       </c>
       <c r="M7" s="4" t="b">
         <f>IF(I7=H7, TRUE, FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="105" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>220</v>
+    <row r="8" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
@@ -2172,37 +1624,33 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>439</v>
+        <v>251</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>444</v>
+        <v>251</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8"/>
+      <c r="L8" s="9" t="s">
+        <v>251</v>
       </c>
       <c r="M8" s="4" t="b">
         <f>IF(I8=H8, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="273" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>224</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
       </c>
       <c r="D9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -2214,28 +1662,27 @@
         <v>0</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>441</v>
+        <v>249</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>445</v>
+        <v>249</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9"/>
+      <c r="L9" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="M9" s="4" t="b">
         <f>IF(I9=H9, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="147" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>225</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -2244,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -2253,31 +1700,37 @@
         <v>0</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>437</v>
+        <v>252</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>440</v>
+        <v>252</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="K10" t="s">
+        <v>263</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>252</v>
       </c>
       <c r="M10" s="4" t="b">
         <f>IF(I10=H10, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="252" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="168" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>227</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
       </c>
       <c r="D11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
@@ -2289,25 +1742,25 @@
         <v>0</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>441</v>
+        <v>249</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>437</v>
+        <v>252</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>441</v>
+        <v>253</v>
       </c>
       <c r="M11" s="4" t="b">
         <f>IF(I11=H11, TRUE, FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="126" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>229</v>
+    <row r="12" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -2316,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -2325,67 +1778,71 @@
         <v>0</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>440</v>
+        <v>249</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>445</v>
+        <v>249</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12"/>
+      <c r="L12" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="M12" s="4" t="b">
         <f>IF(I12=H12, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="210" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>231</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
       </c>
       <c r="F13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>439</v>
+        <v>253</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13"/>
+      <c r="L13" s="9" t="s">
+        <v>253</v>
       </c>
       <c r="M13" s="4" t="b">
         <f>IF(I13=H13, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="168" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>237</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -2397,70 +1854,73 @@
         <v>0</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>438</v>
+        <v>249</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>441</v>
+        <v>249</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="K14"/>
+      <c r="L14" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="M14" s="4" t="b">
         <f>IF(I14=H14, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="210" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>238</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>440</v>
+        <v>254</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>440</v>
+        <v>254</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15"/>
+      <c r="L15" s="9" t="s">
+        <v>254</v>
       </c>
       <c r="M15" s="4" t="b">
         <f>IF(I15=H15, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="231" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>240</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -2472,25 +1932,29 @@
         <v>0</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>449</v>
+        <v>254</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>448</v>
+        <v>254</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="K16"/>
+      <c r="L16" s="9" t="s">
+        <v>254</v>
       </c>
       <c r="M16" s="4" t="b">
         <f>IF(I16=H16, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="357" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>241</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -2505,40 +1969,39 @@
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>446</v>
+        <v>249</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17"/>
+      <c r="L17" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="M17" s="4" t="b">
         <f>IF(I17=H17, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="147" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>242</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
@@ -2547,109 +2010,110 @@
         <v>0</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>443</v>
+        <v>254</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>442</v>
+        <v>254</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18"/>
+      <c r="L18" s="9" t="s">
+        <v>254</v>
       </c>
       <c r="M18" s="4" t="b">
         <f>IF(I18=H18, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="84" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="189" x14ac:dyDescent="0.2">
+      <c r="A19" s="15">
+        <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>243</v>
+        <v>23</v>
       </c>
       <c r="C19" s="3">
-        <v>0.32615431041793486</v>
+        <v>0</v>
       </c>
       <c r="D19" s="3">
-        <v>0.30399624110229162</v>
+        <v>0</v>
       </c>
       <c r="E19" s="3">
-        <v>0.49791700121478533</v>
+        <v>1</v>
       </c>
       <c r="F19" s="3">
-        <v>0.25370026294591597</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>-2.8536208992903767E-2</v>
+        <v>0</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>468</v>
+        <v>252</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>456</v>
+        <v>255</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>437</v>
+        <v>252</v>
       </c>
       <c r="M19" s="4" t="b">
         <f>IF(I19=H19, TRUE, FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="84" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>244</v>
+    <row r="20" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C20" s="3">
-        <v>0.21481349152307516</v>
+        <v>0</v>
       </c>
       <c r="D20" s="3">
-        <v>0.28174297034517259</v>
+        <v>1</v>
       </c>
       <c r="E20" s="3">
-        <v>0.49755544828259479</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0.39829403199461311</v>
+        <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>8.7223077022741791E-2</v>
+        <v>0</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>469</v>
+        <v>253</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>440</v>
+        <v>253</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20"/>
+      <c r="L20" s="9" t="s">
+        <v>253</v>
       </c>
       <c r="M20" s="4" t="b">
         <f>IF(I20=H20, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="147" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>245</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -2661,28 +2125,30 @@
         <v>0</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>444</v>
+        <v>253</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>444</v>
+        <v>253</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21"/>
+      <c r="L21" s="9" t="s">
+        <v>253</v>
       </c>
       <c r="M21" s="4" t="b">
         <f>IF(I21=H21, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="105" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>253</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
@@ -2697,37 +2163,36 @@
         <v>0</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>437</v>
+        <v>256</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>444</v>
+        <v>256</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22"/>
+      <c r="L22" s="9" t="s">
+        <v>256</v>
       </c>
       <c r="M22" s="4" t="b">
         <f>IF(I22=H22, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>255</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -2736,37 +2201,36 @@
         <v>0</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>440</v>
+        <v>256</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>446</v>
+        <v>256</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23"/>
+      <c r="L23" s="9" t="s">
+        <v>256</v>
       </c>
       <c r="M23" s="4" t="b">
         <f>IF(I23=H23, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="147" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>257</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -2775,28 +2239,27 @@
         <v>0</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>440</v>
+        <v>256</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>437</v>
+        <v>256</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24"/>
+      <c r="L24" s="9" t="s">
+        <v>256</v>
       </c>
       <c r="M24" s="4" t="b">
         <f>IF(I24=H24, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="168" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>258</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
@@ -2808,76 +2271,71 @@
         <v>0</v>
       </c>
       <c r="F25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>448</v>
+        <v>253</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>441</v>
+        <v>253</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="K25"/>
+      <c r="L25" s="9" t="s">
+        <v>253</v>
       </c>
       <c r="M25" s="4" t="b">
         <f>IF(I25=H25, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="189" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>71</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="168" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>259</v>
+        <v>30</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="2">
         <v>0</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>439</v>
+        <v>257</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>400</v>
+        <v>249</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>442</v>
+        <v>257</v>
       </c>
       <c r="M26" s="4" t="b">
         <f>IF(I26=H26, TRUE, FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="105" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>261</v>
+    <row r="27" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
@@ -2895,22 +2353,29 @@
         <v>0</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>437</v>
+        <v>249</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="K27"/>
+      <c r="L27" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="M27" s="4" t="b">
         <f>IF(I27=H27, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="357" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>74</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>262</v>
+        <v>32</v>
       </c>
       <c r="C28" s="3">
         <v>0</v>
@@ -2919,40 +2384,40 @@
         <v>0</v>
       </c>
       <c r="E28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="2">
         <v>0</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>440</v>
+        <v>251</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>447</v>
+        <v>256</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>389</v>
+        <v>201</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>455</v>
+        <v>264</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>447</v>
+        <v>256</v>
       </c>
       <c r="M28" s="4" t="b">
         <f>IF(I28=H28, TRUE, FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="105" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>267</v>
+    <row r="29" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C29" s="3">
         <v>0</v>
@@ -2964,40 +2429,41 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="2">
         <v>0</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>439</v>
+        <v>249</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>437</v>
+        <v>249</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="K29"/>
+      <c r="L29" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="M29" s="4" t="b">
         <f>IF(I29=H29, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="231" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>268</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
       </c>
       <c r="D30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -3009,25 +2475,29 @@
         <v>0</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>441</v>
+        <v>249</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>441</v>
+        <v>249</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="K30"/>
+      <c r="L30" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="M30" s="4" t="b">
         <f>IF(I30=H30, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>272</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
@@ -3045,34 +2515,36 @@
         <v>0</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>441</v>
+        <v>253</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>441</v>
+        <v>253</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31"/>
+      <c r="L31" s="9" t="s">
+        <v>253</v>
       </c>
       <c r="M31" s="4" t="b">
         <f>IF(I31=H31, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="294" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>86</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="273" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>274</v>
+        <v>36</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -3081,25 +2553,28 @@
         <v>0</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>440</v>
+        <v>253</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>437</v>
+        <v>257</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>440</v>
+        <v>257</v>
       </c>
       <c r="M32" s="4" t="b">
         <f>IF(I32=H32, TRUE, FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="126" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>89</v>
+    <row r="33" spans="1:13" ht="147" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>277</v>
+        <v>37</v>
       </c>
       <c r="C33" s="3">
         <v>0</v>
@@ -3117,22 +2592,25 @@
         <v>0</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>437</v>
+        <v>249</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>252</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>437</v>
+        <v>252</v>
       </c>
       <c r="M33" s="4" t="b">
         <f>IF(I33=H33, TRUE, FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="168" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>278</v>
+    <row r="34" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C34" s="3">
         <v>0</v>
@@ -3141,7 +2619,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
@@ -3150,28 +2628,29 @@
         <v>0</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>445</v>
+        <v>253</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>470</v>
+        <v>253</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="K34"/>
+      <c r="L34" s="9" t="s">
+        <v>253</v>
       </c>
       <c r="M34" s="4" t="b">
         <f>IF(I34=H34, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="273" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>96</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="252" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>284</v>
+        <v>39</v>
       </c>
       <c r="C35" s="3">
         <v>0</v>
@@ -3189,28 +2668,25 @@
         <v>0</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>441</v>
+        <v>253</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>406</v>
+        <v>249</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>448</v>
+        <v>253</v>
       </c>
       <c r="M35" s="4" t="b">
         <f>IF(I35=H35, TRUE, FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="189" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>286</v>
+    <row r="36" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C36" s="3">
         <v>0</v>
@@ -3219,46 +2695,47 @@
         <v>0</v>
       </c>
       <c r="E36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="2">
         <v>0</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>440</v>
+        <v>251</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>439</v>
+        <v>251</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="K36"/>
+      <c r="L36" s="9" t="s">
+        <v>251</v>
       </c>
       <c r="M36" s="4" t="b">
         <f>IF(I36=H36, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="252" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>99</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="126" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
+        <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>287</v>
+        <v>41</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
       </c>
       <c r="D37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
@@ -3267,37 +2744,37 @@
         <v>0</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>441</v>
+        <v>252</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>440</v>
+        <v>253</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>408</v>
+        <v>203</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>440</v>
+        <v>257</v>
       </c>
       <c r="M37" s="4" t="b">
         <f>IF(I37=H37, TRUE, FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="63" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>291</v>
+    <row r="38" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C38" s="3">
         <v>0</v>
       </c>
       <c r="D38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
@@ -3306,28 +2783,30 @@
         <v>0</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>441</v>
+        <v>252</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>441</v>
+        <v>252</v>
+      </c>
+      <c r="J38" s="4"/>
+      <c r="K38"/>
+      <c r="L38" s="9" t="s">
+        <v>252</v>
       </c>
       <c r="M38" s="4" t="b">
         <f>IF(I38=H38, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="105" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>104</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="210" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
+        <v>38</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>292</v>
+        <v>43</v>
       </c>
       <c r="C39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="3">
         <v>0</v>
@@ -3342,28 +2821,22 @@
         <v>0</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>410</v>
+        <v>251</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>444</v>
+        <v>251</v>
       </c>
       <c r="M39" s="4" t="b">
         <f>IF(I39=H39, TRUE, FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="357" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>297</v>
+    <row r="40" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C40" s="3">
         <v>0</v>
@@ -3372,37 +2845,40 @@
         <v>0</v>
       </c>
       <c r="E40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="2">
         <v>0</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>439</v>
+        <v>252</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>448</v>
+        <v>252</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="K40" t="s">
+        <v>265</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>252</v>
       </c>
       <c r="M40" s="4" t="b">
         <f>IF(I40=H40, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="189" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>300</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="272" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C41" s="3">
         <v>0</v>
@@ -3411,46 +2887,45 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>440</v>
+        <v>258</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>440</v>
+        <v>258</v>
+      </c>
+      <c r="J41" s="4"/>
+      <c r="K41"/>
+      <c r="L41" s="9" t="s">
+        <v>258</v>
       </c>
       <c r="M41" s="4" t="b">
         <f>IF(I41=H41, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="210" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>301</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C42" s="3">
         <v>0</v>
       </c>
       <c r="D42" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -3459,34 +2934,38 @@
         <v>0</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>445</v>
+        <v>249</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>445</v>
+        <v>249</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="K42"/>
+      <c r="L42" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="M42" s="4" t="b">
         <f>IF(I42=H42, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="147" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>307</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="204" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -3495,37 +2974,38 @@
         <v>0</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>441</v>
+        <v>259</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>440</v>
+        <v>259</v>
+      </c>
+      <c r="J43" s="4"/>
+      <c r="K43" t="s">
+        <v>266</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>259</v>
       </c>
       <c r="M43" s="4" t="b">
         <f>IF(I43=H43, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="126" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>309</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -3534,34 +3014,30 @@
         <v>0</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>444</v>
+        <v>252</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>447</v>
+        <v>252</v>
+      </c>
+      <c r="J44" s="4"/>
+      <c r="K44"/>
+      <c r="L44" s="9" t="s">
+        <v>252</v>
       </c>
       <c r="M44" s="4" t="b">
         <f>IF(I44=H44, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="42" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>125</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="168" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <v>44</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>313</v>
+        <v>49</v>
       </c>
       <c r="C45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="3">
         <v>1</v>
@@ -3576,19 +3052,16 @@
         <v>0</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>441</v>
+        <v>250</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>459</v>
+        <v>205</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>437</v>
+        <v>253</v>
       </c>
       <c r="M45" s="4" t="b">
         <f>IF(I45=H45, TRUE, FALSE)</f>
@@ -3596,20 +3069,20 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="210" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>126</v>
+      <c r="A46" s="15">
+        <v>45</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>314</v>
+        <v>50</v>
       </c>
       <c r="C46" s="3">
         <v>0</v>
       </c>
       <c r="D46" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -3618,28 +3091,28 @@
         <v>0</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>441</v>
+        <v>252</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>441</v>
+        <v>252</v>
       </c>
       <c r="M46" s="4" t="b">
         <f>IF(I46=H46, TRUE, FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="231" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>317</v>
+    <row r="47" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C47" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
@@ -3654,52 +3127,53 @@
         <v>0</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>437</v>
+        <v>256</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="L47" s="5" t="s">
-        <v>437</v>
+        <v>256</v>
+      </c>
+      <c r="J47" s="4"/>
+      <c r="K47" t="s">
+        <v>267</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>256</v>
       </c>
       <c r="M47" s="4" t="b">
         <f>IF(I47=H47, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="168" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>134</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="231" x14ac:dyDescent="0.2">
+      <c r="A48" s="15">
+        <v>47</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>322</v>
+        <v>52</v>
       </c>
       <c r="C48" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
       </c>
       <c r="E48" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" s="2">
         <v>0</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>445</v>
+        <v>261</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>458</v>
+        <v>260</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>441</v>
+        <v>260</v>
       </c>
       <c r="M48" s="4" t="b">
         <f>IF(I48=H48, TRUE, FALSE)</f>
@@ -3707,20 +3181,20 @@
       </c>
     </row>
     <row r="49" spans="1:13" ht="357" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>137</v>
+      <c r="A49" s="15">
+        <v>48</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>325</v>
+        <v>53</v>
       </c>
       <c r="C49" s="3">
         <v>0</v>
       </c>
       <c r="D49" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -3729,139 +3203,145 @@
         <v>0</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>445</v>
+        <v>249</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>441</v>
+        <v>258</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>445</v>
+        <v>258</v>
       </c>
       <c r="M49" s="4" t="b">
         <f>IF(I49=H49, TRUE, FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="231" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>138</v>
+    <row r="50" spans="1:13" ht="147" x14ac:dyDescent="0.2">
+      <c r="A50" s="15">
+        <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>326</v>
+        <v>54</v>
       </c>
       <c r="C50" s="3">
         <v>0</v>
       </c>
       <c r="D50" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="2">
         <v>0</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>441</v>
+        <v>255</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>437</v>
+        <v>256</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>441</v>
+        <v>254</v>
       </c>
       <c r="M50" s="4" t="b">
         <f>IF(I50=H50, TRUE, FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="189" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>139</v>
+    <row r="51" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+      <c r="A51" s="15">
+        <v>50</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>327</v>
+        <v>55</v>
       </c>
       <c r="C51" s="3">
-        <v>0</v>
+        <v>0.32615431041793486</v>
       </c>
       <c r="D51" s="3">
-        <v>0</v>
+        <v>0.30399624110229162</v>
       </c>
       <c r="E51" s="3">
-        <v>0</v>
+        <v>0.49791700121478533</v>
       </c>
       <c r="F51" s="3">
-        <v>0</v>
+        <v>0.25370026294591597</v>
       </c>
       <c r="G51" s="2">
-        <v>0</v>
+        <v>-2.8536208992903767E-2</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>437</v>
+        <v>280</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>441</v>
+        <v>249</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>461</v>
+        <v>268</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="M51" s="4" t="b">
         <f>IF(I51=H51, TRUE, FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="189" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>140</v>
+    <row r="52" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+      <c r="A52" s="15">
+        <v>51</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>328</v>
+        <v>56</v>
       </c>
       <c r="C52" s="3">
-        <v>0</v>
+        <v>0.21481349152307516</v>
       </c>
       <c r="D52" s="3">
-        <v>1</v>
+        <v>0.28174297034517259</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>0.49755544828259479</v>
       </c>
       <c r="F52" s="3">
-        <v>1</v>
+        <v>0.39829403199461311</v>
       </c>
       <c r="G52" s="2">
-        <v>0</v>
+        <v>8.7223077022741791E-2</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>448</v>
+        <v>281</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>439</v>
+        <v>252</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>448</v>
+        <v>252</v>
       </c>
       <c r="M52" s="4" t="b">
         <f>IF(I52=H52, TRUE, FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="189" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>141</v>
+    <row r="53" spans="1:13" ht="147" x14ac:dyDescent="0.2">
+      <c r="A53" s="15">
+        <v>52</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>329</v>
+        <v>57</v>
       </c>
       <c r="C53" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="3">
         <v>0</v>
@@ -3870,85 +3350,77 @@
         <v>0</v>
       </c>
       <c r="F53" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" s="2">
         <v>0</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>439</v>
+        <v>256</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>462</v>
+        <v>254</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>448</v>
+        <v>256</v>
       </c>
       <c r="M53" s="4" t="b">
         <f>IF(I53=H53, TRUE, FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="273" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>331</v>
+    <row r="54" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A54" s="15">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C54" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
       </c>
       <c r="F54" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" s="2">
         <v>0</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>449</v>
+        <v>249</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="L54" s="5" t="s">
-        <v>449</v>
+        <v>249</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="K54"/>
+      <c r="L54" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="M54" s="4" t="b">
         <f>IF(I54=H54, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="231" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>332</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="187" x14ac:dyDescent="0.2">
+      <c r="A55" s="15">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C55" s="3">
         <v>0</v>
       </c>
       <c r="D55" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" s="3">
         <v>0</v>
@@ -3960,25 +3432,27 @@
         <v>0</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>441</v>
+        <v>249</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="L55" s="5" t="s">
-        <v>441</v>
+        <v>249</v>
+      </c>
+      <c r="J55" s="4"/>
+      <c r="K55"/>
+      <c r="L55" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="M55" s="4" t="b">
         <f>IF(I55=H55, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>333</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="A56" s="15">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C56" s="3">
         <v>0</v>
@@ -3990,43 +3464,41 @@
         <v>0</v>
       </c>
       <c r="F56" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" s="2">
         <v>0</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>437</v>
+        <v>251</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="L56" s="5" t="s">
-        <v>437</v>
+        <v>251</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="K56"/>
+      <c r="L56" s="9" t="s">
+        <v>251</v>
       </c>
       <c r="M56" s="4" t="b">
         <f>IF(I56=H56, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="63" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>334</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="187" x14ac:dyDescent="0.2">
+      <c r="A57" s="15">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C57" s="3">
         <v>0</v>
       </c>
       <c r="D57" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -4038,34 +3510,38 @@
         <v>0</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>441</v>
+        <v>249</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="L57" s="5" t="s">
-        <v>437</v>
+        <v>249</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="K57"/>
+      <c r="L57" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="M57" s="4" t="b">
         <f>IF(I57=H57, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="126" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>335</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="A58" s="15">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="C58" s="3">
         <v>0</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -4074,28 +3550,27 @@
         <v>0</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>440</v>
+        <v>253</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="L58" s="5" t="s">
-        <v>443</v>
+        <v>253</v>
+      </c>
+      <c r="J58" s="4"/>
+      <c r="K58"/>
+      <c r="L58" s="9" t="s">
+        <v>253</v>
       </c>
       <c r="M58" s="4" t="b">
         <f>IF(I58=H58, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="147" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>343</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="A59" s="15">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C59" s="3">
         <v>0</v>
@@ -4104,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -4113,28 +3588,27 @@
         <v>0</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>437</v>
+        <v>252</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="L59" s="5" t="s">
-        <v>437</v>
+        <v>252</v>
+      </c>
+      <c r="J59" s="4"/>
+      <c r="K59"/>
+      <c r="L59" s="9" t="s">
+        <v>252</v>
       </c>
       <c r="M59" s="4" t="b">
         <f>IF(I59=H59, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="168" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>345</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A60" s="15">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C60" s="3">
         <v>0</v>
@@ -4143,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -4152,31 +3626,27 @@
         <v>0</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>440</v>
+        <v>249</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="L60" s="5" t="s">
-        <v>437</v>
+        <v>249</v>
+      </c>
+      <c r="J60" s="4"/>
+      <c r="K60"/>
+      <c r="L60" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="M60" s="4" t="b">
         <f>IF(I60=H60, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="210" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>158</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+      <c r="A61" s="15">
+        <v>60</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>346</v>
+        <v>65</v>
       </c>
       <c r="C61" s="3">
         <v>0</v>
@@ -4185,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -4194,25 +3664,28 @@
         <v>0</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>440</v>
+        <v>249</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>437</v>
+        <v>256</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>437</v>
+        <v>256</v>
       </c>
       <c r="M61" s="4" t="b">
         <f>IF(I61=H61, TRUE, FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="147" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>354</v>
+    <row r="62" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="A62" s="15">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C62" s="3">
         <v>0</v>
@@ -4224,31 +3697,33 @@
         <v>1</v>
       </c>
       <c r="F62" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" s="2">
         <v>0</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>443</v>
+        <v>252</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="L62" s="5" t="s">
-        <v>443</v>
+        <v>252</v>
+      </c>
+      <c r="J62" s="4"/>
+      <c r="K62"/>
+      <c r="L62" s="9" t="s">
+        <v>252</v>
       </c>
       <c r="M62" s="4" t="b">
         <f>IF(I62=H62, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="105" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>173</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A63" s="15">
+        <v>62</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>361</v>
+        <v>67</v>
       </c>
       <c r="C63" s="3">
         <v>0</v>
@@ -4257,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
@@ -4266,34 +3741,34 @@
         <v>0</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>437</v>
+        <v>252</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>439</v>
+        <v>258</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>429</v>
+        <v>210</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>439</v>
+        <v>258</v>
       </c>
       <c r="M63" s="4" t="b">
         <f>IF(I63=H63, TRUE, FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="189" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>363</v>
+    <row r="64" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="A64" s="15">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C64" s="3">
         <v>0</v>
       </c>
       <c r="D64" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" s="3">
         <v>0</v>
@@ -4305,34 +3780,36 @@
         <v>0</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>441</v>
+        <v>249</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="L64" s="5" t="s">
-        <v>448</v>
+        <v>249</v>
+      </c>
+      <c r="J64" s="4"/>
+      <c r="K64"/>
+      <c r="L64" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="M64" s="4" t="b">
         <f>IF(I64=H64, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="126" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>177</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="147" x14ac:dyDescent="0.2">
+      <c r="A65" s="15">
+        <v>64</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>365</v>
+        <v>69</v>
       </c>
       <c r="C65" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" s="3">
         <v>0</v>
       </c>
       <c r="E65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
@@ -4341,34 +3818,37 @@
         <v>0</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>444</v>
+        <v>252</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>437</v>
+        <v>249</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>444</v>
+        <v>249</v>
       </c>
       <c r="M65" s="4" t="b">
         <f>IF(I65=H65, TRUE, FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="147" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>178</v>
+    <row r="66" spans="1:13" ht="168" x14ac:dyDescent="0.2">
+      <c r="A66" s="15">
+        <v>65</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>366</v>
+        <v>70</v>
       </c>
       <c r="C66" s="3">
         <v>0</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" s="3">
         <v>1</v>
@@ -4377,100 +3857,110 @@
         <v>0</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>443</v>
+        <v>260</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>437</v>
+        <v>251</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>439</v>
+        <v>253</v>
       </c>
       <c r="M66" s="4" t="b">
         <f>IF(I66=H66, TRUE, FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="231" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>179</v>
+    <row r="67" spans="1:13" ht="189" x14ac:dyDescent="0.2">
+      <c r="A67" s="15">
+        <v>66</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>367</v>
+        <v>71</v>
       </c>
       <c r="C67" s="3">
         <v>0</v>
       </c>
       <c r="D67" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="2">
         <v>0</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>445</v>
+        <v>251</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>448</v>
+        <v>254</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>407</v>
+        <v>212</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>448</v>
+        <v>254</v>
       </c>
       <c r="M67" s="4" t="b">
         <f>IF(I67=H67, TRUE, FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="273" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>370</v>
+    <row r="68" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="A68" s="15">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="C68" s="3">
         <v>0</v>
       </c>
       <c r="D68" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="2">
         <v>0</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>445</v>
+        <v>251</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="L68" s="5" t="s">
-        <v>445</v>
+        <v>251</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="K68"/>
+      <c r="L68" s="9" t="s">
+        <v>251</v>
       </c>
       <c r="M68" s="4" t="b">
         <f>IF(I68=H68, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="84" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>183</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+      <c r="A69" s="15">
+        <v>68</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>371</v>
+        <v>73</v>
       </c>
       <c r="C69" s="3">
         <v>0</v>
@@ -4485,31 +3975,25 @@
         <v>0</v>
       </c>
       <c r="G69" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>461</v>
+        <v>249</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="M69" s="4" t="b">
         <f>IF(I69=H69, TRUE, FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="189" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>185</v>
+    <row r="70" spans="1:13" ht="357" x14ac:dyDescent="0.2">
+      <c r="A70" s="15">
+        <v>69</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>373</v>
+        <v>74</v>
       </c>
       <c r="C70" s="3">
         <v>0</v>
@@ -4518,43 +4002,49 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="2">
         <v>0</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>439</v>
+        <v>252</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>448</v>
+        <v>259</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>439</v>
+        <v>259</v>
       </c>
       <c r="M70" s="4" t="b">
         <f>IF(I70=H70, TRUE, FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="147" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>375</v>
+    <row r="71" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="A71" s="15">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C71" s="3">
         <v>0</v>
       </c>
       <c r="D71" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="3">
         <v>0</v>
@@ -4563,25 +4053,27 @@
         <v>0</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>441</v>
+        <v>252</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="L71" s="5" t="s">
-        <v>437</v>
+        <v>252</v>
+      </c>
+      <c r="J71" s="4"/>
+      <c r="K71"/>
+      <c r="L71" s="9" t="s">
+        <v>252</v>
       </c>
       <c r="M71" s="4" t="b">
         <f>IF(I71=H71, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="126" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>377</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A72" s="15">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="C72" s="3">
         <v>0</v>
@@ -4590,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" s="3">
         <v>0</v>
@@ -4599,64 +4091,69 @@
         <v>0</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>440</v>
+        <v>249</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="L72" s="5" t="s">
-        <v>440</v>
+        <v>249</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="K72"/>
+      <c r="L72" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="M72" s="4" t="b">
         <f>IF(I72=H72, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="357" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>378</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="A73" s="15">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="C73" s="3">
         <v>0</v>
       </c>
       <c r="D73" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" s="3">
         <v>0</v>
       </c>
       <c r="F73" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" s="2">
         <v>0</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>437</v>
+        <v>260</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="L73" s="5" t="s">
-        <v>437</v>
+        <v>260</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="K73"/>
+      <c r="L73" s="9" t="s">
+        <v>260</v>
       </c>
       <c r="M73" s="4" t="b">
         <f>IF(I73=H73, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="168" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>379</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="A74" s="15">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C74" s="3">
         <v>0</v>
@@ -4665,37 +4162,41 @@
         <v>0</v>
       </c>
       <c r="E74" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" s="2">
         <v>0</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>440</v>
+        <v>251</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="L74" s="5" t="s">
-        <v>440</v>
+        <v>251</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="K74"/>
+      <c r="L74" s="9" t="s">
+        <v>251</v>
       </c>
       <c r="M74" s="4" t="b">
         <f>IF(I74=H74, TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="136" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>194</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+      <c r="A75" s="15">
+        <v>74</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="C75" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" s="3">
         <v>0</v>
@@ -4704,39 +4205,40 @@
         <v>0</v>
       </c>
       <c r="F75" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" s="2">
         <v>0</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>444</v>
+        <v>251</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="J75" s="4"/>
-      <c r="K75"/>
-      <c r="L75" s="9" t="s">
-        <v>444</v>
+        <v>249</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="M75" s="4" t="b">
         <f>IF(I75=H75, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="102" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>195</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="231" x14ac:dyDescent="0.2">
+      <c r="A76" s="15">
+        <v>75</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="C76" s="3">
         <v>0</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" s="3">
         <v>0</v>
@@ -4748,67 +4250,63 @@
         <v>0</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>437</v>
+        <v>253</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J76" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="K76"/>
-      <c r="L76" s="9" t="s">
-        <v>437</v>
+        <v>249</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="M76" s="4" t="b">
         <f>IF(I76=H76, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="119" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="A77" s="15">
+        <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="C77" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" s="3">
         <v>0</v>
       </c>
       <c r="F77" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" s="2">
         <v>0</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>437</v>
+        <v>261</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>437</v>
+        <v>261</v>
       </c>
       <c r="J77" s="4"/>
-      <c r="K77"/>
+      <c r="K77" s="9"/>
       <c r="L77" s="9" t="s">
-        <v>437</v>
+        <v>261</v>
       </c>
       <c r="M77" s="4" t="b">
         <f>IF(I77=H77, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="119" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>12</v>
+    <row r="78" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A78" s="15">
+        <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>200</v>
+        <v>82</v>
       </c>
       <c r="C78" s="3">
         <v>0</v>
@@ -4820,33 +4318,37 @@
         <v>0</v>
       </c>
       <c r="F78" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" s="2">
         <v>0</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>439</v>
+        <v>249</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="J78" s="4"/>
-      <c r="K78"/>
+        <v>249</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="K78" t="s">
+        <v>269</v>
+      </c>
       <c r="L78" s="9" t="s">
-        <v>439</v>
+        <v>249</v>
       </c>
       <c r="M78" s="4" t="b">
         <f>IF(I78=H78, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="68" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>13</v>
+    <row r="79" spans="1:13" ht="306" x14ac:dyDescent="0.2">
+      <c r="A79" s="15">
+        <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>201</v>
+        <v>83</v>
       </c>
       <c r="C79" s="3">
         <v>0</v>
@@ -4861,39 +4363,39 @@
         <v>0</v>
       </c>
       <c r="G79" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>437</v>
+        <v>258</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>437</v>
+        <v>258</v>
       </c>
       <c r="J79" s="4"/>
       <c r="K79"/>
       <c r="L79" s="9" t="s">
-        <v>437</v>
+        <v>258</v>
       </c>
       <c r="M79" s="4" t="b">
         <f>IF(I79=H79, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="153" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>202</v>
+    <row r="80" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A80" s="15">
+        <v>79</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="C80" s="3">
         <v>0</v>
       </c>
       <c r="D80" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" s="3">
         <v>0</v>
@@ -4902,37 +4404,31 @@
         <v>0</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>440</v>
+        <v>253</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="K80" t="s">
-        <v>451</v>
-      </c>
-      <c r="L80" s="9" t="s">
-        <v>440</v>
+        <v>249</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="M80" s="4" t="b">
         <f>IF(I80=H80, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="68" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A81" s="15">
+        <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>204</v>
+        <v>85</v>
       </c>
       <c r="C81" s="3">
         <v>0</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -4944,36 +4440,38 @@
         <v>0</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>437</v>
+        <v>253</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>437</v>
+        <v>253</v>
       </c>
       <c r="J81" s="4"/>
-      <c r="K81"/>
+      <c r="K81" t="s">
+        <v>267</v>
+      </c>
       <c r="L81" s="9" t="s">
-        <v>437</v>
+        <v>253</v>
       </c>
       <c r="M81" s="4" t="b">
         <f>IF(I81=H81, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="136" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>205</v>
+    <row r="82" spans="1:13" ht="294" x14ac:dyDescent="0.2">
+      <c r="A82" s="15">
+        <v>81</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="C82" s="3">
         <v>0</v>
       </c>
       <c r="D82" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" s="3">
         <v>0</v>
@@ -4982,27 +4480,25 @@
         <v>0</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>441</v>
+        <v>252</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="J82" s="4"/>
-      <c r="K82"/>
-      <c r="L82" s="9" t="s">
-        <v>441</v>
+        <v>249</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="M82" s="4" t="b">
         <f>IF(I82=H82, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="153" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="A83" s="15">
+        <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>206</v>
+        <v>87</v>
       </c>
       <c r="C83" s="3">
         <v>0</v>
@@ -5020,32 +4516,32 @@
         <v>0</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>383</v>
+        <v>195</v>
       </c>
       <c r="K83"/>
       <c r="L83" s="9" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="M83" s="4" t="b">
         <f>IF(I83=H83, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="170" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>19</v>
+    <row r="84" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="A84" s="15">
+        <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>207</v>
+        <v>88</v>
       </c>
       <c r="C84" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" s="3">
         <v>0</v>
@@ -5060,30 +4556,30 @@
         <v>0</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>442</v>
+        <v>251</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>442</v>
+        <v>251</v>
       </c>
       <c r="J84" s="4"/>
       <c r="K84"/>
       <c r="L84" s="9" t="s">
-        <v>442</v>
+        <v>251</v>
       </c>
       <c r="M84" s="4" t="b">
         <f>IF(I84=H84, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="102" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>208</v>
+    <row r="85" spans="1:13" ht="126" x14ac:dyDescent="0.2">
+      <c r="A85" s="15">
+        <v>84</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="C85" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85" s="3">
         <v>0</v>
@@ -5092,117 +4588,111 @@
         <v>0</v>
       </c>
       <c r="F85" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" s="2">
         <v>0</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="I85" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="J85" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="K85"/>
-      <c r="L85" s="9" t="s">
-        <v>442</v>
+        <v>249</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="M85" s="4" t="b">
         <f>IF(I85=H85, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>209</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="168" x14ac:dyDescent="0.2">
+      <c r="A86" s="15">
+        <v>85</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="C86" s="3">
         <v>0</v>
       </c>
       <c r="D86" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" s="3">
         <v>0</v>
       </c>
       <c r="G86" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>437</v>
+        <v>257</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J86" s="4"/>
-      <c r="K86"/>
-      <c r="L86" s="9" t="s">
-        <v>437</v>
+        <v>255</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="L86" s="5" t="s">
+        <v>282</v>
       </c>
       <c r="M86" s="4" t="b">
         <f>IF(I86=H86, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="68" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="187" x14ac:dyDescent="0.2">
+      <c r="A87" s="15">
+        <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>210</v>
+        <v>91</v>
       </c>
       <c r="C87" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" s="2">
         <v>0</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>442</v>
+        <v>257</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>442</v>
+        <v>257</v>
       </c>
       <c r="J87" s="4"/>
       <c r="K87"/>
       <c r="L87" s="9" t="s">
-        <v>442</v>
+        <v>257</v>
       </c>
       <c r="M87" s="4" t="b">
         <f>IF(I87=H87, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="170" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>24</v>
+    <row r="88" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A88" s="15">
+        <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>212</v>
+        <v>92</v>
       </c>
       <c r="C88" s="3">
         <v>0</v>
       </c>
       <c r="D88" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" s="3">
         <v>0</v>
@@ -5214,33 +4704,33 @@
         <v>0</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>441</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>441</v>
+        <v>249</v>
       </c>
       <c r="J88" s="4"/>
       <c r="K88"/>
       <c r="L88" s="9" t="s">
-        <v>441</v>
+        <v>249</v>
       </c>
       <c r="M88" s="4" t="b">
         <f>IF(I88=H88, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="68" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>25</v>
+    <row r="89" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="A89" s="15">
+        <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>213</v>
+        <v>93</v>
       </c>
       <c r="C89" s="3">
         <v>0</v>
       </c>
       <c r="D89" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -5252,30 +4742,30 @@
         <v>0</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>441</v>
+        <v>249</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>441</v>
+        <v>249</v>
       </c>
       <c r="J89" s="4"/>
       <c r="K89"/>
       <c r="L89" s="9" t="s">
-        <v>441</v>
+        <v>249</v>
       </c>
       <c r="M89" s="4" t="b">
         <f>IF(I89=H89, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="170" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>26</v>
+    <row r="90" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="A90" s="15">
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="C90" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" s="3">
         <v>0</v>
@@ -5290,30 +4780,30 @@
         <v>0</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>444</v>
+        <v>249</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>444</v>
+        <v>249</v>
       </c>
       <c r="J90" s="4"/>
       <c r="K90"/>
       <c r="L90" s="9" t="s">
-        <v>444</v>
+        <v>249</v>
       </c>
       <c r="M90" s="4" t="b">
         <f>IF(I90=H90, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>27</v>
+    <row r="91" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="A91" s="15">
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>215</v>
+        <v>95</v>
       </c>
       <c r="C91" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
@@ -5328,33 +4818,35 @@
         <v>0</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>444</v>
+        <v>249</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>444</v>
+        <v>249</v>
       </c>
       <c r="J91" s="4"/>
-      <c r="K91"/>
+      <c r="K91" t="s">
+        <v>270</v>
+      </c>
       <c r="L91" s="9" t="s">
-        <v>444</v>
+        <v>249</v>
       </c>
       <c r="M91" s="4" t="b">
         <f>IF(I91=H91, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="68" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>216</v>
+    <row r="92" spans="1:13" ht="273" x14ac:dyDescent="0.2">
+      <c r="A92" s="15">
+        <v>91</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="C92" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" s="3">
         <v>0</v>
@@ -5366,113 +4858,111 @@
         <v>0</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>444</v>
+        <v>253</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="J92" s="4"/>
-      <c r="K92"/>
-      <c r="L92" s="9" t="s">
-        <v>444</v>
+        <v>251</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L92" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="M92" s="4" t="b">
         <f>IF(I92=H92, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="119" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="A93" s="15">
+        <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>217</v>
+        <v>97</v>
       </c>
       <c r="C93" s="3">
         <v>0</v>
       </c>
       <c r="D93" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" s="3">
         <v>0</v>
       </c>
       <c r="F93" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" s="2">
         <v>0</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>441</v>
+        <v>251</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="J93" s="4" t="s">
-        <v>387</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="J93" s="4"/>
       <c r="K93"/>
       <c r="L93" s="9" t="s">
-        <v>441</v>
+        <v>251</v>
       </c>
       <c r="M93" s="4" t="b">
         <f>IF(I93=H93, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="119" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B94" s="2" t="s">
+    <row r="94" spans="1:13" ht="189" x14ac:dyDescent="0.2">
+      <c r="A94" s="15">
+        <v>93</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="J94" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C94" s="3">
-        <v>0</v>
-      </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="2">
-        <v>0</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="I94" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J94" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="K94"/>
-      <c r="L94" s="9" t="s">
-        <v>437</v>
+      <c r="L94" s="5" t="s">
+        <v>251</v>
       </c>
       <c r="M94" s="4" t="b">
         <f>IF(I94=H94, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" ht="85" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>221</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="252" x14ac:dyDescent="0.2">
+      <c r="A95" s="15">
+        <v>94</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="C95" s="3">
         <v>0</v>
       </c>
       <c r="D95" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" s="3">
         <v>0</v>
@@ -5484,29 +4974,28 @@
         <v>0</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>437</v>
+        <v>253</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="K95"/>
-      <c r="L95" s="9" t="s">
-        <v>437</v>
+        <v>252</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L95" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="M95" s="4" t="b">
         <f>IF(I95=H95, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="68" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>34</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A96" s="15">
+        <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>222</v>
+        <v>100</v>
       </c>
       <c r="C96" s="3">
         <v>0</v>
@@ -5524,35 +5013,35 @@
         <v>0</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>388</v>
+        <v>221</v>
       </c>
       <c r="K96"/>
       <c r="L96" s="9" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="M96" s="4" t="b">
         <f>IF(I96=H96, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="102" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>35</v>
+    <row r="97" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="A97" s="15">
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>223</v>
+        <v>101</v>
       </c>
       <c r="C97" s="3">
         <v>0</v>
       </c>
       <c r="D97" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" s="3">
         <v>0</v>
@@ -5564,15 +5053,15 @@
         <v>0</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>441</v>
+        <v>249</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>441</v>
+        <v>249</v>
       </c>
       <c r="J97" s="4"/>
       <c r="K97"/>
       <c r="L97" s="9" t="s">
-        <v>441</v>
+        <v>249</v>
       </c>
       <c r="M97" s="4" t="b">
         <f>IF(I97=H97, TRUE, FALSE)</f>
@@ -5580,11 +5069,11 @@
       </c>
     </row>
     <row r="98" spans="1:13" ht="119" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>38</v>
+      <c r="A98" s="15">
+        <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>226</v>
+        <v>102</v>
       </c>
       <c r="C98" s="3">
         <v>0</v>
@@ -5602,107 +5091,102 @@
         <v>0</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>441</v>
+        <v>253</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="J98" s="4" t="s">
-        <v>390</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="J98" s="4"/>
       <c r="K98"/>
       <c r="L98" s="9" t="s">
-        <v>441</v>
+        <v>253</v>
       </c>
       <c r="M98" s="4" t="b">
         <f>IF(I98=H98, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="136" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>228</v>
+    <row r="99" spans="1:13" ht="63" x14ac:dyDescent="0.2">
+      <c r="A99" s="15">
+        <v>98</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="C99" s="3">
         <v>0</v>
       </c>
       <c r="D99" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" s="3">
         <v>0</v>
       </c>
       <c r="F99" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" s="2">
         <v>0</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>439</v>
+        <v>253</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="J99" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="K99"/>
-      <c r="L99" s="9" t="s">
-        <v>439</v>
+        <v>249</v>
+      </c>
+      <c r="L99" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="M99" s="4" t="b">
         <f>IF(I99=H99, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" ht="102" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>230</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+      <c r="A100" s="15">
+        <v>99</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="C100" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" s="3">
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" s="2">
         <v>0</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>440</v>
+        <v>254</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="J100" s="4"/>
-      <c r="K100"/>
-      <c r="L100" s="9" t="s">
-        <v>440</v>
+        <v>256</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="L100" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="M100" s="4" t="b">
         <f>IF(I100=H100, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" ht="68" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>44</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="A101" s="15">
+        <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>232</v>
+        <v>105</v>
       </c>
       <c r="C101" s="3">
         <v>0</v>
@@ -5711,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -5720,31 +5204,27 @@
         <v>0</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>440</v>
+        <v>249</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="J101" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="K101" t="s">
-        <v>453</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="J101" s="4"/>
+      <c r="K101"/>
       <c r="L101" s="9" t="s">
-        <v>440</v>
+        <v>249</v>
       </c>
       <c r="M101" s="4" t="b">
         <f>IF(I101=H101, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="272" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>45</v>
+    <row r="102" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="A102" s="15">
+        <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>233</v>
+        <v>106</v>
       </c>
       <c r="C102" s="3">
         <v>0</v>
@@ -5759,30 +5239,30 @@
         <v>0</v>
       </c>
       <c r="G102" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>446</v>
+        <v>249</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>446</v>
+        <v>249</v>
       </c>
       <c r="J102" s="4"/>
       <c r="K102"/>
       <c r="L102" s="9" t="s">
-        <v>446</v>
+        <v>249</v>
       </c>
       <c r="M102" s="4" t="b">
         <f>IF(I102=H102, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="119" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>46</v>
+    <row r="103" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="A103" s="15">
+        <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>234</v>
+        <v>107</v>
       </c>
       <c r="C103" s="3">
         <v>0</v>
@@ -5800,38 +5280,38 @@
         <v>0</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>383</v>
+        <v>217</v>
       </c>
       <c r="K103"/>
       <c r="L103" s="9" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="M103" s="4" t="b">
         <f>IF(I103=H103, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="204" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>47</v>
+    <row r="104" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="A104" s="15">
+        <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>235</v>
+        <v>108</v>
       </c>
       <c r="C104" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D104" s="3">
         <v>0</v>
       </c>
       <c r="E104" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" s="3">
         <v>0</v>
@@ -5840,29 +5320,27 @@
         <v>0</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>447</v>
+        <v>249</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>447</v>
+        <v>249</v>
       </c>
       <c r="J104" s="4"/>
-      <c r="K104" t="s">
-        <v>454</v>
-      </c>
+      <c r="K104"/>
       <c r="L104" s="9" t="s">
-        <v>447</v>
+        <v>249</v>
       </c>
       <c r="M104" s="4" t="b">
         <f>IF(I104=H104, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="170" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>236</v>
+    <row r="105" spans="1:13" ht="357" x14ac:dyDescent="0.2">
+      <c r="A105" s="15">
+        <v>104</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="C105" s="3">
         <v>0</v>
@@ -5871,39 +5349,40 @@
         <v>0</v>
       </c>
       <c r="E105" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105" s="2">
         <v>0</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>440</v>
+        <v>251</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="J105" s="4"/>
-      <c r="K105"/>
-      <c r="L105" s="9" t="s">
-        <v>440</v>
+        <v>254</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L105" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="M105" s="4" t="b">
         <f>IF(I105=H105, TRUE, FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="68" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
-        <v>51</v>
+      <c r="A106" s="15">
+        <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>239</v>
+        <v>110</v>
       </c>
       <c r="C106" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D106" s="3">
         <v>0</v>
@@ -5918,29 +5397,29 @@
         <v>0</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>444</v>
+        <v>249</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="J106" s="4"/>
-      <c r="K106" t="s">
-        <v>455</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="K106"/>
       <c r="L106" s="9" t="s">
-        <v>444</v>
+        <v>249</v>
       </c>
       <c r="M106" s="4" t="b">
         <f>IF(I106=H106, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="68" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
-        <v>58</v>
+    <row r="107" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+      <c r="A107" s="15">
+        <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>246</v>
+        <v>111</v>
       </c>
       <c r="C107" s="3">
         <v>0</v>
@@ -5958,29 +5437,27 @@
         <v>0</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J107" s="4" t="s">
-        <v>387</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="J107" s="4"/>
       <c r="K107"/>
       <c r="L107" s="9" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="M107" s="4" t="b">
         <f>IF(I107=H107, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="187" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>247</v>
+    <row r="108" spans="1:13" ht="189" x14ac:dyDescent="0.2">
+      <c r="A108" s="15">
+        <v>107</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="C108" s="3">
         <v>0</v>
@@ -5989,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="E108" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" s="3">
         <v>0</v>
@@ -5998,67 +5475,64 @@
         <v>0</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>437</v>
+        <v>252</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J108" s="4"/>
-      <c r="K108"/>
-      <c r="L108" s="9" t="s">
-        <v>437</v>
+        <v>249</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L108" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="M108" s="4" t="b">
         <f>IF(I108=H108, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="119" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>248</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="210" x14ac:dyDescent="0.2">
+      <c r="A109" s="15">
+        <v>108</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="C109" s="3">
         <v>0</v>
       </c>
       <c r="D109" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109" s="2">
         <v>0</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>439</v>
+        <v>257</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="J109" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="K109"/>
-      <c r="L109" s="9" t="s">
-        <v>439</v>
+        <v>253</v>
+      </c>
+      <c r="L109" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="M109" s="4" t="b">
         <f>IF(I109=H109, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" ht="187" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
-        <v>61</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="A110" s="15">
+        <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>249</v>
+        <v>114</v>
       </c>
       <c r="C110" s="3">
         <v>0</v>
@@ -6073,38 +5547,36 @@
         <v>0</v>
       </c>
       <c r="G110" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>437</v>
+        <v>258</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J110" s="4" t="s">
-        <v>396</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="J110" s="4"/>
       <c r="K110"/>
       <c r="L110" s="9" t="s">
-        <v>437</v>
+        <v>258</v>
       </c>
       <c r="M110" s="4" t="b">
         <f>IF(I110=H110, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="136" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
-        <v>62</v>
+    <row r="111" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="A111" s="15">
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>250</v>
+        <v>115</v>
       </c>
       <c r="C111" s="3">
         <v>0</v>
       </c>
       <c r="D111" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111" s="3">
         <v>0</v>
@@ -6116,65 +5588,73 @@
         <v>0</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>441</v>
+        <v>249</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="J111" s="4"/>
-      <c r="K111"/>
+        <v>249</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="K111" t="s">
+        <v>270</v>
+      </c>
       <c r="L111" s="9" t="s">
-        <v>441</v>
+        <v>249</v>
       </c>
       <c r="M111" s="4" t="b">
         <f>IF(I111=H111, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="102" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
-        <v>63</v>
+    <row r="112" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A112" s="15">
+        <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>251</v>
+        <v>116</v>
       </c>
       <c r="C112" s="3">
         <v>0</v>
       </c>
       <c r="D112" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112" s="2">
         <v>0</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>440</v>
+        <v>260</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="J112" s="4"/>
-      <c r="K112"/>
+        <v>260</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="K112" t="s">
+        <v>267</v>
+      </c>
       <c r="L112" s="9" t="s">
-        <v>440</v>
+        <v>260</v>
       </c>
       <c r="M112" s="4" t="b">
         <f>IF(I112=H112, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="68" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
-        <v>64</v>
+    <row r="113" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="A113" s="15">
+        <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>252</v>
+        <v>117</v>
       </c>
       <c r="C113" s="3">
         <v>0</v>
@@ -6192,27 +5672,27 @@
         <v>0</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="J113" s="4"/>
       <c r="K113"/>
       <c r="L113" s="9" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="M113" s="4" t="b">
         <f>IF(I113=H113, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="102" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
-        <v>66</v>
+    <row r="114" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A114" s="15">
+        <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>254</v>
+        <v>118</v>
       </c>
       <c r="C114" s="3">
         <v>0</v>
@@ -6221,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="E114" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114" s="3">
         <v>0</v>
@@ -6230,33 +5710,35 @@
         <v>0</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>440</v>
+        <v>249</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="J114" s="4"/>
+        <v>249</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="K114"/>
       <c r="L114" s="9" t="s">
-        <v>440</v>
+        <v>249</v>
       </c>
       <c r="M114" s="4" t="b">
         <f>IF(I114=H114, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="85" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>256</v>
+    <row r="115" spans="1:13" ht="147" x14ac:dyDescent="0.2">
+      <c r="A115" s="15">
+        <v>114</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="C115" s="3">
         <v>0</v>
       </c>
       <c r="D115" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115" s="3">
         <v>0</v>
@@ -6268,27 +5750,28 @@
         <v>0</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>437</v>
+        <v>253</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J115" s="4"/>
-      <c r="K115"/>
-      <c r="L115" s="9" t="s">
-        <v>437</v>
+        <v>251</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L115" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="M115" s="4" t="b">
         <f>IF(I115=H115, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" ht="136" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
-        <v>72</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A116" s="15">
+        <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="C116" s="3">
         <v>0</v>
@@ -6306,38 +5789,36 @@
         <v>0</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>439</v>
+        <v>251</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="J116" s="4" t="s">
-        <v>401</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="J116" s="4"/>
       <c r="K116"/>
       <c r="L116" s="9" t="s">
-        <v>439</v>
+        <v>251</v>
       </c>
       <c r="M116" s="4" t="b">
         <f>IF(I116=H116, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="136" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>263</v>
+    <row r="117" spans="1:13" ht="126" x14ac:dyDescent="0.2">
+      <c r="A117" s="15">
+        <v>116</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="C117" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117" s="3">
         <v>0</v>
       </c>
       <c r="E117" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117" s="3">
         <v>0</v>
@@ -6346,30 +5827,34 @@
         <v>0</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>440</v>
+        <v>256</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="J117" s="4"/>
-      <c r="K117"/>
-      <c r="L117" s="9" t="s">
-        <v>440</v>
+        <v>252</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L117" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="M117" s="4" t="b">
         <f>IF(I117=H117, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
-        <v>76</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="A118" s="15">
+        <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>264</v>
+        <v>122</v>
       </c>
       <c r="C118" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118" s="3">
         <v>0</v>
@@ -6384,69 +5869,65 @@
         <v>0</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>437</v>
+        <v>256</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J118" s="4" t="s">
-        <v>402</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="J118" s="4"/>
       <c r="K118"/>
       <c r="L118" s="9" t="s">
-        <v>437</v>
+        <v>256</v>
       </c>
       <c r="M118" s="4" t="b">
         <f>IF(I118=H118, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="119" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
-        <v>77</v>
+    <row r="119" spans="1:13" ht="388" x14ac:dyDescent="0.2">
+      <c r="A119" s="15">
+        <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="C119" s="3">
         <v>0</v>
       </c>
       <c r="D119" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119" s="3">
         <v>0</v>
       </c>
       <c r="F119" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>448</v>
+        <v>258</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="J119" s="4" t="s">
-        <v>403</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="J119" s="4"/>
       <c r="K119"/>
       <c r="L119" s="9" t="s">
-        <v>448</v>
+        <v>258</v>
       </c>
       <c r="M119" s="4" t="b">
         <f>IF(I119=H119, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="119" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>78</v>
+    <row r="120" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A120" s="15">
+        <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>266</v>
+        <v>124</v>
       </c>
       <c r="C120" s="3">
         <v>0</v>
@@ -6458,38 +5939,36 @@
         <v>0</v>
       </c>
       <c r="F120" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" s="2">
         <v>0</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>439</v>
+        <v>249</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="J120" s="4" t="s">
-        <v>387</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="J120" s="4"/>
       <c r="K120"/>
       <c r="L120" s="9" t="s">
-        <v>439</v>
+        <v>249</v>
       </c>
       <c r="M120" s="4" t="b">
         <f>IF(I120=H120, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="85" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>269</v>
+    <row r="121" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+      <c r="A121" s="15">
+        <v>120</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="C121" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D121" s="3">
         <v>1</v>
@@ -6498,39 +5977,43 @@
         <v>0</v>
       </c>
       <c r="F121" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121" s="2">
         <v>0</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>449</v>
+        <v>253</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="J121" s="4"/>
-      <c r="K121" s="9"/>
-      <c r="L121" s="9" t="s">
-        <v>449</v>
+        <v>249</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L121" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="M121" s="4" t="b">
         <f>IF(I121=H121, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>270</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="210" x14ac:dyDescent="0.2">
+      <c r="A122" s="15">
+        <v>121</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="C122" s="3">
         <v>0</v>
       </c>
       <c r="D122" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" s="3">
         <v>0</v>
@@ -6542,31 +6025,25 @@
         <v>0</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>437</v>
+        <v>253</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J122" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="K122" t="s">
-        <v>457</v>
-      </c>
-      <c r="L122" s="9" t="s">
-        <v>437</v>
+        <v>249</v>
+      </c>
+      <c r="L122" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="M122" s="4" t="b">
         <f>IF(I122=H122, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" ht="306" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
-        <v>83</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A123" s="15">
+        <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>271</v>
+        <v>127</v>
       </c>
       <c r="C123" s="3">
         <v>0</v>
@@ -6581,36 +6058,36 @@
         <v>0</v>
       </c>
       <c r="G123" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>446</v>
+        <v>249</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>446</v>
+        <v>249</v>
       </c>
       <c r="J123" s="4"/>
       <c r="K123"/>
       <c r="L123" s="9" t="s">
-        <v>446</v>
+        <v>249</v>
       </c>
       <c r="M123" s="4" t="b">
         <f>IF(I123=H123, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
-        <v>85</v>
+    <row r="124" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="A124" s="15">
+        <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>273</v>
+        <v>128</v>
       </c>
       <c r="C124" s="3">
         <v>0</v>
       </c>
       <c r="D124" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124" s="3">
         <v>0</v>
@@ -6619,32 +6096,30 @@
         <v>0</v>
       </c>
       <c r="G124" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>441</v>
+        <v>249</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>441</v>
+        <v>249</v>
       </c>
       <c r="J124" s="4"/>
-      <c r="K124" t="s">
-        <v>455</v>
-      </c>
+      <c r="K124"/>
       <c r="L124" s="9" t="s">
-        <v>441</v>
+        <v>249</v>
       </c>
       <c r="M124" s="4" t="b">
         <f>IF(I124=H124, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="85" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>275</v>
+    <row r="125" spans="1:13" ht="231" x14ac:dyDescent="0.2">
+      <c r="A125" s="15">
+        <v>124</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>129</v>
       </c>
       <c r="C125" s="3">
         <v>0</v>
@@ -6662,29 +6137,25 @@
         <v>0</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="I125" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J125" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="K125"/>
-      <c r="L125" s="9" t="s">
-        <v>437</v>
+        <v>256</v>
+      </c>
+      <c r="L125" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="M125" s="4" t="b">
         <f>IF(I125=H125, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" ht="102" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
-        <v>88</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A126" s="15">
+        <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>276</v>
+        <v>130</v>
       </c>
       <c r="C126" s="3">
         <v>0</v>
@@ -6702,27 +6173,29 @@
         <v>0</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>439</v>
+        <v>251</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>439</v>
+        <v>251</v>
       </c>
       <c r="J126" s="4"/>
-      <c r="K126"/>
+      <c r="K126" t="s">
+        <v>270</v>
+      </c>
       <c r="L126" s="9" t="s">
-        <v>439</v>
+        <v>251</v>
       </c>
       <c r="M126" s="4" t="b">
         <f>IF(I126=H126, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="187" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
-        <v>91</v>
+    <row r="127" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="A127" s="15">
+        <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>279</v>
+        <v>131</v>
       </c>
       <c r="C127" s="3">
         <v>0</v>
@@ -6731,7 +6204,7 @@
         <v>1</v>
       </c>
       <c r="E127" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" s="3">
         <v>0</v>
@@ -6740,15 +6213,15 @@
         <v>0</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>445</v>
+        <v>253</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>445</v>
+        <v>253</v>
       </c>
       <c r="J127" s="4"/>
       <c r="K127"/>
       <c r="L127" s="9" t="s">
-        <v>445</v>
+        <v>253</v>
       </c>
       <c r="M127" s="4" t="b">
         <f>IF(I127=H127, TRUE, FALSE)</f>
@@ -6756,11 +6229,11 @@
       </c>
     </row>
     <row r="128" spans="1:13" ht="236" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
-        <v>92</v>
+      <c r="A128" s="15">
+        <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>280</v>
+        <v>132</v>
       </c>
       <c r="C128" s="3">
         <v>0</v>
@@ -6778,27 +6251,27 @@
         <v>0</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="J128" s="4"/>
       <c r="K128"/>
       <c r="L128" s="9" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="M128" s="4" t="b">
         <f>IF(I128=H128, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="102" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
-        <v>93</v>
+    <row r="129" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="A129" s="15">
+        <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>281</v>
+        <v>133</v>
       </c>
       <c r="C129" s="3">
         <v>0</v>
@@ -6807,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="E129" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" s="3">
         <v>0</v>
@@ -6816,36 +6289,40 @@
         <v>0</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>437</v>
+        <v>252</v>
       </c>
       <c r="I129" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J129" s="4"/>
-      <c r="K129"/>
+        <v>252</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="K129" t="s">
+        <v>266</v>
+      </c>
       <c r="L129" s="9" t="s">
-        <v>437</v>
+        <v>252</v>
       </c>
       <c r="M129" s="4" t="b">
         <f>IF(I129=H129, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="102" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>282</v>
+    <row r="130" spans="1:13" ht="168" x14ac:dyDescent="0.2">
+      <c r="A130" s="15">
+        <v>129</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="C130" s="3">
         <v>0</v>
       </c>
       <c r="D130" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" s="3">
         <v>0</v>
@@ -6854,33 +6331,34 @@
         <v>0</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>437</v>
+        <v>257</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J130" s="4"/>
-      <c r="K130"/>
-      <c r="L130" s="9" t="s">
-        <v>437</v>
+        <v>253</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L130" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="M130" s="4" t="b">
         <f>IF(I130=H130, TRUE, FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="85" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
-        <v>95</v>
+      <c r="A131" s="15">
+        <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>283</v>
+        <v>135</v>
       </c>
       <c r="C131" s="3">
         <v>0</v>
       </c>
       <c r="D131" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131" s="3">
         <v>0</v>
@@ -6892,17 +6370,15 @@
         <v>0</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>437</v>
+        <v>253</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>437</v>
+        <v>253</v>
       </c>
       <c r="J131" s="4"/>
-      <c r="K131" t="s">
-        <v>458</v>
-      </c>
+      <c r="K131"/>
       <c r="L131" s="9" t="s">
-        <v>437</v>
+        <v>253</v>
       </c>
       <c r="M131" s="4" t="b">
         <f>IF(I131=H131, TRUE, FALSE)</f>
@@ -6910,11 +6386,11 @@
       </c>
     </row>
     <row r="132" spans="1:13" ht="136" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
-        <v>97</v>
+      <c r="A132" s="15">
+        <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>285</v>
+        <v>136</v>
       </c>
       <c r="C132" s="3">
         <v>0</v>
@@ -6923,45 +6399,49 @@
         <v>0</v>
       </c>
       <c r="E132" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G132" s="2">
         <v>0</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>439</v>
+        <v>252</v>
       </c>
       <c r="I132" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="J132" s="4"/>
-      <c r="K132"/>
+        <v>252</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="K132" t="s">
+        <v>272</v>
+      </c>
       <c r="L132" s="9" t="s">
-        <v>439</v>
+        <v>252</v>
       </c>
       <c r="M132" s="4" t="b">
         <f>IF(I132=H132, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>288</v>
+    <row r="133" spans="1:13" ht="357" x14ac:dyDescent="0.2">
+      <c r="A133" s="15">
+        <v>132</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>137</v>
       </c>
       <c r="C133" s="3">
         <v>0</v>
       </c>
       <c r="D133" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" s="3">
         <v>0</v>
@@ -6970,35 +6450,31 @@
         <v>0</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>437</v>
+        <v>257</v>
       </c>
       <c r="I133" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J133" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="K133"/>
-      <c r="L133" s="9" t="s">
-        <v>437</v>
+        <v>253</v>
+      </c>
+      <c r="L133" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="M133" s="4" t="b">
         <f>IF(I133=H133, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" ht="85" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>289</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="231" x14ac:dyDescent="0.2">
+      <c r="A134" s="15">
+        <v>133</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>138</v>
       </c>
       <c r="C134" s="3">
         <v>0</v>
       </c>
       <c r="D134" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" s="3">
         <v>0</v>
@@ -7010,33 +6486,31 @@
         <v>0</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>437</v>
+        <v>253</v>
       </c>
       <c r="I134" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J134" s="4"/>
-      <c r="K134"/>
-      <c r="L134" s="9" t="s">
-        <v>437</v>
+        <v>249</v>
+      </c>
+      <c r="L134" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="M134" s="4" t="b">
         <f>IF(I134=H134, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" ht="119" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>290</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="189" x14ac:dyDescent="0.2">
+      <c r="A135" s="15">
+        <v>134</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="C135" s="3">
         <v>0</v>
       </c>
       <c r="D135" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E135" s="3">
         <v>0</v>
@@ -7048,65 +6522,64 @@
         <v>0</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>441</v>
+        <v>249</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="J135" s="4"/>
-      <c r="K135"/>
-      <c r="L135" s="9" t="s">
-        <v>441</v>
+        <v>253</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="L135" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="M135" s="4" t="b">
         <f>IF(I135=H135, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" ht="85" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>293</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="189" x14ac:dyDescent="0.2">
+      <c r="A136" s="15">
+        <v>135</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="C136" s="3">
         <v>0</v>
       </c>
       <c r="D136" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E136" s="3">
         <v>0</v>
       </c>
       <c r="F136" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G136" s="2">
         <v>0</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>437</v>
+        <v>260</v>
       </c>
       <c r="I136" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J136" s="4"/>
-      <c r="K136"/>
-      <c r="L136" s="9" t="s">
-        <v>437</v>
+        <v>251</v>
+      </c>
+      <c r="L136" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="M136" s="4" t="b">
         <f>IF(I136=H136, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" ht="102" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>294</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="189" x14ac:dyDescent="0.2">
+      <c r="A137" s="15">
+        <v>136</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="C137" s="3">
         <v>0</v>
@@ -7118,33 +6591,37 @@
         <v>0</v>
       </c>
       <c r="F137" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137" s="2">
         <v>0</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>437</v>
+        <v>251</v>
       </c>
       <c r="I137" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J137" s="4"/>
-      <c r="K137"/>
-      <c r="L137" s="9" t="s">
-        <v>437</v>
+        <v>260</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="L137" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="M137" s="4" t="b">
         <f>IF(I137=H137, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" ht="255" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
-        <v>107</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="A138" s="15">
+        <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>295</v>
+        <v>142</v>
       </c>
       <c r="C138" s="3">
         <v>0</v>
@@ -7153,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="E138" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" s="3">
         <v>0</v>
@@ -7162,73 +6639,75 @@
         <v>0</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>437</v>
+        <v>252</v>
       </c>
       <c r="I138" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J138" s="4" t="s">
-        <v>405</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="J138" s="4"/>
       <c r="K138"/>
       <c r="L138" s="9" t="s">
-        <v>437</v>
+        <v>252</v>
       </c>
       <c r="M138" s="4" t="b">
         <f>IF(I138=H138, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="85" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>296</v>
+    <row r="139" spans="1:13" ht="273" x14ac:dyDescent="0.2">
+      <c r="A139" s="15">
+        <v>138</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>143</v>
       </c>
       <c r="C139" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D139" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139" s="3">
         <v>0</v>
       </c>
       <c r="F139" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G139" s="2">
         <v>0</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>437</v>
+        <v>261</v>
       </c>
       <c r="I139" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J139" s="4"/>
-      <c r="K139"/>
-      <c r="L139" s="9" t="s">
-        <v>437</v>
+        <v>254</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="L139" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="M139" s="4" t="b">
         <f>IF(I139=H139, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" ht="68" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>298</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="231" x14ac:dyDescent="0.2">
+      <c r="A140" s="15">
+        <v>139</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="C140" s="3">
         <v>0</v>
       </c>
       <c r="D140" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140" s="3">
         <v>0</v>
@@ -7240,29 +6719,25 @@
         <v>0</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>437</v>
+        <v>253</v>
       </c>
       <c r="I140" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J140" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="K140"/>
-      <c r="L140" s="9" t="s">
-        <v>437</v>
+        <v>249</v>
+      </c>
+      <c r="L140" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="M140" s="4" t="b">
         <f>IF(I140=H140, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" ht="170" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>299</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A141" s="15">
+        <v>140</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="C141" s="3">
         <v>0</v>
@@ -7280,33 +6755,37 @@
         <v>0</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="I141" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J141" s="4"/>
-      <c r="K141"/>
-      <c r="L141" s="9" t="s">
-        <v>437</v>
+        <v>250</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="L141" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="M141" s="4" t="b">
         <f>IF(I141=H141, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" ht="153" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>302</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="63" x14ac:dyDescent="0.2">
+      <c r="A142" s="15">
+        <v>141</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="C142" s="3">
         <v>0</v>
       </c>
       <c r="D142" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E142" s="3">
         <v>0</v>
@@ -7315,30 +6794,28 @@
         <v>0</v>
       </c>
       <c r="G142" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>446</v>
+        <v>253</v>
       </c>
       <c r="I142" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="J142" s="4"/>
-      <c r="K142"/>
-      <c r="L142" s="9" t="s">
-        <v>446</v>
+        <v>249</v>
+      </c>
+      <c r="L142" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="M142" s="4" t="b">
         <f>IF(I142=H142, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" ht="85" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>303</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="126" x14ac:dyDescent="0.2">
+      <c r="A143" s="15">
+        <v>142</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="C143" s="3">
         <v>0</v>
@@ -7347,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="E143" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" s="3">
         <v>0</v>
@@ -7356,31 +6833,28 @@
         <v>0</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>437</v>
+        <v>252</v>
       </c>
       <c r="I143" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J143" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="K143" t="s">
-        <v>458</v>
-      </c>
-      <c r="L143" s="9" t="s">
-        <v>437</v>
+        <v>255</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="L143" s="5" t="s">
+        <v>255</v>
       </c>
       <c r="M143" s="4" t="b">
         <f>IF(I143=H143, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" ht="68" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
-        <v>116</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="A144" s="15">
+        <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>304</v>
+        <v>148</v>
       </c>
       <c r="C144" s="3">
         <v>0</v>
@@ -7398,31 +6872,27 @@
         <v>0</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>448</v>
+        <v>260</v>
       </c>
       <c r="I144" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="J144" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="K144" t="s">
-        <v>455</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="J144" s="4"/>
+      <c r="K144"/>
       <c r="L144" s="9" t="s">
-        <v>448</v>
+        <v>260</v>
       </c>
       <c r="M144" s="4" t="b">
         <f>IF(I144=H144, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="153" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
-        <v>117</v>
+    <row r="145" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="A145" s="15">
+        <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>305</v>
+        <v>149</v>
       </c>
       <c r="C145" s="3">
         <v>0</v>
@@ -7440,27 +6910,29 @@
         <v>0</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="I145" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J145" s="4"/>
+        <v>249</v>
+      </c>
+      <c r="J145" s="4" t="s">
+        <v>214</v>
+      </c>
       <c r="K145"/>
       <c r="L145" s="9" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="M145" s="4" t="b">
         <f>IF(I145=H145, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
-        <v>118</v>
+    <row r="146" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A146" s="15">
+        <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>306</v>
+        <v>150</v>
       </c>
       <c r="C146" s="3">
         <v>0</v>
@@ -7478,29 +6950,27 @@
         <v>0</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="I146" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J146" s="4" t="s">
-        <v>415</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="J146" s="4"/>
       <c r="K146"/>
       <c r="L146" s="9" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="M146" s="4" t="b">
         <f>IF(I146=H146, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
-        <v>120</v>
+    <row r="147" spans="1:13" ht="238" x14ac:dyDescent="0.2">
+      <c r="A147" s="15">
+        <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>308</v>
+        <v>151</v>
       </c>
       <c r="C147" s="3">
         <v>0</v>
@@ -7518,27 +6988,29 @@
         <v>0</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>439</v>
+        <v>251</v>
       </c>
       <c r="I147" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="J147" s="4"/>
+        <v>251</v>
+      </c>
+      <c r="J147" s="4" t="s">
+        <v>236</v>
+      </c>
       <c r="K147"/>
       <c r="L147" s="9" t="s">
-        <v>439</v>
+        <v>251</v>
       </c>
       <c r="M147" s="4" t="b">
         <f>IF(I147=H147, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="153" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
-        <v>122</v>
+    <row r="148" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A148" s="15">
+        <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>310</v>
+        <v>152</v>
       </c>
       <c r="C148" s="3">
         <v>1</v>
@@ -7556,33 +7028,35 @@
         <v>0</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>444</v>
+        <v>256</v>
       </c>
       <c r="I148" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="J148" s="4"/>
+        <v>256</v>
+      </c>
+      <c r="J148" s="4" t="s">
+        <v>237</v>
+      </c>
       <c r="K148"/>
       <c r="L148" s="9" t="s">
-        <v>444</v>
+        <v>256</v>
       </c>
       <c r="M148" s="4" t="b">
         <f>IF(I148=H148, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="388" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
-        <v>123</v>
+    <row r="149" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+      <c r="A149" s="15">
+        <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>311</v>
+        <v>153</v>
       </c>
       <c r="C149" s="3">
         <v>0</v>
       </c>
       <c r="D149" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149" s="3">
         <v>0</v>
@@ -7591,36 +7065,36 @@
         <v>0</v>
       </c>
       <c r="G149" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>446</v>
+        <v>253</v>
       </c>
       <c r="I149" s="9" t="s">
-        <v>446</v>
+        <v>253</v>
       </c>
       <c r="J149" s="4"/>
       <c r="K149"/>
       <c r="L149" s="9" t="s">
-        <v>446</v>
+        <v>253</v>
       </c>
       <c r="M149" s="4" t="b">
         <f>IF(I149=H149, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
-        <v>124</v>
+    <row r="150" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A150" s="15">
+        <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>312</v>
+        <v>154</v>
       </c>
       <c r="C150" s="3">
         <v>0</v>
       </c>
       <c r="D150" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150" s="3">
         <v>0</v>
@@ -7632,27 +7106,27 @@
         <v>0</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>437</v>
+        <v>253</v>
       </c>
       <c r="I150" s="9" t="s">
-        <v>437</v>
+        <v>253</v>
       </c>
       <c r="J150" s="4"/>
       <c r="K150"/>
       <c r="L150" s="9" t="s">
-        <v>437</v>
+        <v>253</v>
       </c>
       <c r="M150" s="4" t="b">
         <f>IF(I150=H150, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A151" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>315</v>
+    <row r="151" spans="1:13" ht="147" x14ac:dyDescent="0.2">
+      <c r="A151" s="15">
+        <v>150</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>155</v>
       </c>
       <c r="C151" s="3">
         <v>0</v>
@@ -7670,27 +7144,28 @@
         <v>0</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="I151" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J151" s="4"/>
-      <c r="K151"/>
-      <c r="L151" s="9" t="s">
-        <v>437</v>
+        <v>253</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="L151" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="M151" s="4" t="b">
         <f>IF(I151=H151, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" ht="119" x14ac:dyDescent="0.2">
-      <c r="A152" s="2" t="s">
-        <v>128</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="A152" s="15">
+        <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>316</v>
+        <v>156</v>
       </c>
       <c r="C152" s="3">
         <v>0</v>
@@ -7708,27 +7183,27 @@
         <v>1</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>437</v>
+        <v>258</v>
       </c>
       <c r="I152" s="9" t="s">
-        <v>437</v>
+        <v>258</v>
       </c>
       <c r="J152" s="4"/>
       <c r="K152"/>
       <c r="L152" s="9" t="s">
-        <v>437</v>
+        <v>258</v>
       </c>
       <c r="M152" s="4" t="b">
         <f>IF(I152=H152, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="68" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>318</v>
+    <row r="153" spans="1:13" ht="168" x14ac:dyDescent="0.2">
+      <c r="A153" s="15">
+        <v>152</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="C153" s="3">
         <v>0</v>
@@ -7737,47 +7212,49 @@
         <v>0</v>
       </c>
       <c r="E153" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G153" s="2">
         <v>0</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>439</v>
+        <v>252</v>
       </c>
       <c r="I153" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="J153" s="4"/>
-      <c r="K153" t="s">
-        <v>458</v>
-      </c>
-      <c r="L153" s="9" t="s">
-        <v>439</v>
+        <v>249</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="L153" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="M153" s="4" t="b">
         <f>IF(I153=H153, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" ht="119" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>319</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="210" x14ac:dyDescent="0.2">
+      <c r="A154" s="15">
+        <v>153</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="C154" s="3">
         <v>0</v>
       </c>
       <c r="D154" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E154" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" s="3">
         <v>0</v>
@@ -7786,27 +7263,25 @@
         <v>0</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>441</v>
+        <v>252</v>
       </c>
       <c r="I154" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="J154" s="4"/>
-      <c r="K154"/>
-      <c r="L154" s="9" t="s">
-        <v>441</v>
+        <v>249</v>
+      </c>
+      <c r="L154" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="M154" s="4" t="b">
         <f>IF(I154=H154, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" ht="153" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="s">
-        <v>132</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A155" s="15">
+        <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>320</v>
+        <v>159</v>
       </c>
       <c r="C155" s="3">
         <v>0</v>
@@ -7815,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="E155" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" s="3">
         <v>0</v>
@@ -7824,27 +7299,27 @@
         <v>0</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>437</v>
+        <v>252</v>
       </c>
       <c r="I155" s="9" t="s">
-        <v>437</v>
+        <v>252</v>
       </c>
       <c r="J155" s="4"/>
       <c r="K155"/>
       <c r="L155" s="9" t="s">
-        <v>437</v>
+        <v>252</v>
       </c>
       <c r="M155" s="4" t="b">
         <f>IF(I155=H155, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="153" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
-        <v>133</v>
+    <row r="156" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A156" s="15">
+        <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>321</v>
+        <v>160</v>
       </c>
       <c r="C156" s="3">
         <v>0</v>
@@ -7853,46 +7328,42 @@
         <v>0</v>
       </c>
       <c r="E156" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G156" s="2">
         <v>0</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>440</v>
+        <v>251</v>
       </c>
       <c r="I156" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="J156" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="K156" t="s">
-        <v>454</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="J156" s="4"/>
+      <c r="K156"/>
       <c r="L156" s="9" t="s">
-        <v>440</v>
+        <v>251</v>
       </c>
       <c r="M156" s="4" t="b">
         <f>IF(I156=H156, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="85" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="s">
-        <v>135</v>
+    <row r="157" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A157" s="15">
+        <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>323</v>
+        <v>161</v>
       </c>
       <c r="C157" s="3">
         <v>0</v>
       </c>
       <c r="D157" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E157" s="3">
         <v>0</v>
@@ -7904,27 +7375,27 @@
         <v>0</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>441</v>
+        <v>249</v>
       </c>
       <c r="I157" s="9" t="s">
-        <v>441</v>
+        <v>249</v>
       </c>
       <c r="J157" s="4"/>
       <c r="K157"/>
       <c r="L157" s="9" t="s">
-        <v>441</v>
+        <v>249</v>
       </c>
       <c r="M157" s="4" t="b">
         <f>IF(I157=H157, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="136" x14ac:dyDescent="0.2">
-      <c r="A158" s="2" t="s">
-        <v>136</v>
+    <row r="158" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A158" s="15">
+        <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>324</v>
+        <v>162</v>
       </c>
       <c r="C158" s="3">
         <v>0</v>
@@ -7933,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="E158" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158" s="3">
         <v>0</v>
@@ -7942,40 +7413,38 @@
         <v>0</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>440</v>
+        <v>249</v>
       </c>
       <c r="I158" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="J158" s="4" t="s">
-        <v>411</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="J158" s="4"/>
       <c r="K158" t="s">
-        <v>460</v>
+        <v>267</v>
       </c>
       <c r="L158" s="9" t="s">
-        <v>440</v>
+        <v>249</v>
       </c>
       <c r="M158" s="4" t="b">
         <f>IF(I158=H158, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="119" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="s">
-        <v>142</v>
+    <row r="159" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="A159" s="15">
+        <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>330</v>
+        <v>163</v>
       </c>
       <c r="C159" s="3">
         <v>0</v>
       </c>
       <c r="D159" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159" s="3">
         <v>0</v>
@@ -7984,27 +7453,27 @@
         <v>0</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>440</v>
+        <v>253</v>
       </c>
       <c r="I159" s="9" t="s">
-        <v>440</v>
+        <v>253</v>
       </c>
       <c r="J159" s="4"/>
       <c r="K159"/>
       <c r="L159" s="9" t="s">
-        <v>440</v>
+        <v>253</v>
       </c>
       <c r="M159" s="4" t="b">
         <f>IF(I159=H159, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="136" x14ac:dyDescent="0.2">
-      <c r="A160" s="2" t="s">
-        <v>148</v>
+    <row r="160" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="A160" s="15">
+        <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>336</v>
+        <v>164</v>
       </c>
       <c r="C160" s="3">
         <v>0</v>
@@ -8016,39 +7485,41 @@
         <v>0</v>
       </c>
       <c r="F160" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G160" s="2">
         <v>0</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>448</v>
+        <v>253</v>
       </c>
       <c r="I160" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="J160" s="4"/>
+        <v>253</v>
+      </c>
+      <c r="J160" s="4" t="s">
+        <v>239</v>
+      </c>
       <c r="K160"/>
       <c r="L160" s="9" t="s">
-        <v>448</v>
+        <v>253</v>
       </c>
       <c r="M160" s="4" t="b">
         <f>IF(I160=H160, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="102" x14ac:dyDescent="0.2">
-      <c r="A161" s="2" t="s">
-        <v>149</v>
+    <row r="161" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A161" s="15">
+        <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>337</v>
+        <v>165</v>
       </c>
       <c r="C161" s="3">
         <v>0</v>
       </c>
       <c r="D161" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161" s="3">
         <v>0</v>
@@ -8060,29 +7531,29 @@
         <v>0</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>437</v>
+        <v>253</v>
       </c>
       <c r="I161" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J161" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="K161"/>
+        <v>253</v>
+      </c>
+      <c r="J161" s="4"/>
+      <c r="K161" t="s">
+        <v>273</v>
+      </c>
       <c r="L161" s="9" t="s">
-        <v>437</v>
+        <v>253</v>
       </c>
       <c r="M161" s="4" t="b">
         <f>IF(I161=H161, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A162" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>338</v>
+    <row r="162" spans="1:13" ht="147" x14ac:dyDescent="0.2">
+      <c r="A162" s="15">
+        <v>161</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>166</v>
       </c>
       <c r="C162" s="3">
         <v>0</v>
@@ -8091,36 +7562,34 @@
         <v>0</v>
       </c>
       <c r="E162" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G162" s="2">
         <v>0</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>437</v>
+        <v>255</v>
       </c>
       <c r="I162" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J162" s="4"/>
-      <c r="K162"/>
-      <c r="L162" s="9" t="s">
-        <v>437</v>
+        <v>260</v>
+      </c>
+      <c r="L162" s="5" t="s">
+        <v>255</v>
       </c>
       <c r="M162" s="4" t="b">
         <f>IF(I162=H162, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" ht="238" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="s">
-        <v>151</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="A163" s="15">
+        <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>339</v>
+        <v>167</v>
       </c>
       <c r="C163" s="3">
         <v>0</v>
@@ -8129,44 +7598,42 @@
         <v>0</v>
       </c>
       <c r="E163" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163" s="2">
         <v>0</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>439</v>
+        <v>252</v>
       </c>
       <c r="I163" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="J163" s="4" t="s">
-        <v>424</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="J163" s="4"/>
       <c r="K163"/>
       <c r="L163" s="9" t="s">
-        <v>439</v>
+        <v>252</v>
       </c>
       <c r="M163" s="4" t="b">
         <f>IF(I163=H163, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A164" s="2" t="s">
-        <v>152</v>
+    <row r="164" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="A164" s="15">
+        <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>340</v>
+        <v>168</v>
       </c>
       <c r="C164" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D164" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" s="3">
         <v>0</v>
@@ -8178,35 +7645,33 @@
         <v>0</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>444</v>
+        <v>253</v>
       </c>
       <c r="I164" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="J164" s="4" t="s">
-        <v>425</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="J164" s="4"/>
       <c r="K164"/>
       <c r="L164" s="9" t="s">
-        <v>444</v>
+        <v>253</v>
       </c>
       <c r="M164" s="4" t="b">
         <f>IF(I164=H164, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="170" x14ac:dyDescent="0.2">
-      <c r="A165" s="2" t="s">
-        <v>153</v>
+    <row r="165" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="A165" s="15">
+        <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>341</v>
+        <v>169</v>
       </c>
       <c r="C165" s="3">
         <v>0</v>
       </c>
       <c r="D165" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E165" s="3">
         <v>0</v>
@@ -8218,27 +7683,27 @@
         <v>0</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>441</v>
+        <v>249</v>
       </c>
       <c r="I165" s="9" t="s">
-        <v>441</v>
+        <v>249</v>
       </c>
       <c r="J165" s="4"/>
       <c r="K165"/>
       <c r="L165" s="9" t="s">
-        <v>441</v>
+        <v>249</v>
       </c>
       <c r="M165" s="4" t="b">
         <f>IF(I165=H165, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="68" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="s">
-        <v>154</v>
+    <row r="166" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="A166" s="15">
+        <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>342</v>
+        <v>170</v>
       </c>
       <c r="C166" s="3">
         <v>0</v>
@@ -8256,27 +7721,27 @@
         <v>0</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>441</v>
+        <v>253</v>
       </c>
       <c r="I166" s="9" t="s">
-        <v>441</v>
+        <v>253</v>
       </c>
       <c r="J166" s="4"/>
       <c r="K166"/>
       <c r="L166" s="9" t="s">
-        <v>441</v>
+        <v>253</v>
       </c>
       <c r="M166" s="4" t="b">
         <f>IF(I166=H166, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="136" x14ac:dyDescent="0.2">
-      <c r="A167" s="2" t="s">
-        <v>156</v>
+    <row r="167" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A167" s="15">
+        <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>344</v>
+        <v>171</v>
       </c>
       <c r="C167" s="3">
         <v>0</v>
@@ -8291,18 +7756,20 @@
         <v>0</v>
       </c>
       <c r="G167" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>446</v>
+        <v>249</v>
       </c>
       <c r="I167" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="J167" s="4"/>
+        <v>249</v>
+      </c>
+      <c r="J167" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="K167"/>
       <c r="L167" s="9" t="s">
-        <v>446</v>
+        <v>249</v>
       </c>
       <c r="M167" s="4" t="b">
         <f>IF(I167=H167, TRUE, FALSE)</f>
@@ -8310,11 +7777,11 @@
       </c>
     </row>
     <row r="168" spans="1:13" ht="68" x14ac:dyDescent="0.2">
-      <c r="A168" s="2" t="s">
-        <v>159</v>
+      <c r="A168" s="15">
+        <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>347</v>
+        <v>172</v>
       </c>
       <c r="C168" s="3">
         <v>0</v>
@@ -8323,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="E168" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" s="3">
         <v>0</v>
@@ -8332,27 +7799,27 @@
         <v>0</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>440</v>
+        <v>249</v>
       </c>
       <c r="I168" s="9" t="s">
-        <v>440</v>
+        <v>249</v>
       </c>
       <c r="J168" s="4"/>
       <c r="K168"/>
       <c r="L168" s="9" t="s">
-        <v>440</v>
+        <v>249</v>
       </c>
       <c r="M168" s="4" t="b">
         <f>IF(I168=H168, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="68" x14ac:dyDescent="0.2">
-      <c r="A169" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>348</v>
+    <row r="169" spans="1:13" ht="105" x14ac:dyDescent="0.2">
+      <c r="A169" s="15">
+        <v>168</v>
+      </c>
+      <c r="B169" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="C169" s="3">
         <v>0</v>
@@ -8364,33 +7831,34 @@
         <v>0</v>
       </c>
       <c r="F169" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169" s="2">
         <v>0</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>439</v>
+        <v>249</v>
       </c>
       <c r="I169" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="J169" s="4"/>
-      <c r="K169"/>
-      <c r="L169" s="9" t="s">
-        <v>439</v>
+        <v>251</v>
+      </c>
+      <c r="J169" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="L169" s="5" t="s">
+        <v>251</v>
       </c>
       <c r="M169" s="4" t="b">
         <f>IF(I169=H169, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" ht="68" x14ac:dyDescent="0.2">
-      <c r="A170" s="2" t="s">
-        <v>161</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="A170" s="15">
+        <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>349</v>
+        <v>174</v>
       </c>
       <c r="C170" s="3">
         <v>0</v>
@@ -8408,33 +7876,35 @@
         <v>0</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="I170" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J170" s="4"/>
+        <v>249</v>
+      </c>
+      <c r="J170" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="K170"/>
       <c r="L170" s="9" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="M170" s="4" t="b">
         <f>IF(I170=H170, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="68" x14ac:dyDescent="0.2">
-      <c r="A171" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>350</v>
+    <row r="171" spans="1:13" ht="189" x14ac:dyDescent="0.2">
+      <c r="A171" s="15">
+        <v>170</v>
+      </c>
+      <c r="B171" s="12" t="s">
+        <v>175</v>
       </c>
       <c r="C171" s="3">
         <v>0</v>
       </c>
       <c r="D171" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E171" s="3">
         <v>0</v>
@@ -8446,35 +7916,31 @@
         <v>0</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>437</v>
+        <v>253</v>
       </c>
       <c r="I171" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J171" s="4"/>
-      <c r="K171" t="s">
-        <v>455</v>
-      </c>
-      <c r="L171" s="9" t="s">
-        <v>437</v>
+        <v>260</v>
+      </c>
+      <c r="L171" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="M171" s="4" t="b">
         <f>IF(I171=H171, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" ht="85" x14ac:dyDescent="0.2">
-      <c r="A172" s="2" t="s">
-        <v>163</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="A172" s="15">
+        <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>351</v>
+        <v>176</v>
       </c>
       <c r="C172" s="3">
         <v>0</v>
       </c>
       <c r="D172" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E172" s="3">
         <v>0</v>
@@ -8483,36 +7949,38 @@
         <v>0</v>
       </c>
       <c r="G172" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>441</v>
+        <v>258</v>
       </c>
       <c r="I172" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="J172" s="4"/>
+        <v>258</v>
+      </c>
+      <c r="J172" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="K172"/>
       <c r="L172" s="9" t="s">
-        <v>441</v>
+        <v>258</v>
       </c>
       <c r="M172" s="4" t="b">
         <f>IF(I172=H172, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="85" x14ac:dyDescent="0.2">
-      <c r="A173" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>352</v>
+    <row r="173" spans="1:13" ht="126" x14ac:dyDescent="0.2">
+      <c r="A173" s="15">
+        <v>172</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="C173" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D173" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E173" s="3">
         <v>0</v>
@@ -8524,75 +7992,67 @@
         <v>0</v>
       </c>
       <c r="H173" s="5" t="s">
-        <v>441</v>
+        <v>256</v>
       </c>
       <c r="I173" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="J173" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="K173"/>
-      <c r="L173" s="9" t="s">
-        <v>441</v>
+        <v>249</v>
+      </c>
+      <c r="L173" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="M173" s="4" t="b">
         <f>IF(I173=H173, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" ht="68" x14ac:dyDescent="0.2">
-      <c r="A174" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>353</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" ht="147" x14ac:dyDescent="0.2">
+      <c r="A174" s="15">
+        <v>173</v>
+      </c>
+      <c r="B174" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="C174" s="3">
         <v>0</v>
       </c>
       <c r="D174" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E174" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G174" s="2">
         <v>0</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>441</v>
+        <v>255</v>
       </c>
       <c r="I174" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="J174" s="4"/>
-      <c r="K174" t="s">
-        <v>461</v>
-      </c>
-      <c r="L174" s="9" t="s">
-        <v>441</v>
+        <v>249</v>
+      </c>
+      <c r="L174" s="5" t="s">
+        <v>251</v>
       </c>
       <c r="M174" s="4" t="b">
         <f>IF(I174=H174, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" ht="119" x14ac:dyDescent="0.2">
-      <c r="A175" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>355</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" ht="231" x14ac:dyDescent="0.2">
+      <c r="A175" s="15">
+        <v>174</v>
+      </c>
+      <c r="B175" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="C175" s="3">
         <v>0</v>
       </c>
       <c r="D175" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E175" s="3">
         <v>1</v>
@@ -8604,27 +8064,28 @@
         <v>0</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>440</v>
+        <v>257</v>
       </c>
       <c r="I175" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="J175" s="4"/>
-      <c r="K175"/>
-      <c r="L175" s="9" t="s">
-        <v>440</v>
+        <v>260</v>
+      </c>
+      <c r="J175" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="L175" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="M175" s="4" t="b">
         <f>IF(I175=H175, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" ht="85" x14ac:dyDescent="0.2">
-      <c r="A176" s="2" t="s">
-        <v>168</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+      <c r="A176" s="15">
+        <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>356</v>
+        <v>180</v>
       </c>
       <c r="C176" s="3">
         <v>0</v>
@@ -8642,27 +8103,29 @@
         <v>0</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>441</v>
+        <v>253</v>
       </c>
       <c r="I176" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="J176" s="4"/>
+        <v>253</v>
+      </c>
+      <c r="J176" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="K176"/>
       <c r="L176" s="9" t="s">
-        <v>441</v>
+        <v>253</v>
       </c>
       <c r="M176" s="4" t="b">
         <f>IF(I176=H176, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="102" x14ac:dyDescent="0.2">
-      <c r="A177" s="2" t="s">
-        <v>169</v>
+    <row r="177" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="A177" s="15">
+        <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>357</v>
+        <v>181</v>
       </c>
       <c r="C177" s="3">
         <v>0</v>
@@ -8680,27 +8143,27 @@
         <v>0</v>
       </c>
       <c r="H177" s="5" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="I177" s="9" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="J177" s="4"/>
       <c r="K177"/>
       <c r="L177" s="9" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="M177" s="4" t="b">
         <f>IF(I177=H177, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="85" x14ac:dyDescent="0.2">
-      <c r="A178" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>358</v>
+    <row r="178" spans="1:13" ht="273" x14ac:dyDescent="0.2">
+      <c r="A178" s="15">
+        <v>177</v>
+      </c>
+      <c r="B178" s="12" t="s">
+        <v>182</v>
       </c>
       <c r="C178" s="3">
         <v>0</v>
@@ -8709,7 +8172,7 @@
         <v>1</v>
       </c>
       <c r="E178" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178" s="3">
         <v>0</v>
@@ -8718,27 +8181,25 @@
         <v>0</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>441</v>
+        <v>257</v>
       </c>
       <c r="I178" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="J178" s="4"/>
-      <c r="K178"/>
-      <c r="L178" s="9" t="s">
-        <v>441</v>
+        <v>249</v>
+      </c>
+      <c r="L178" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="M178" s="4" t="b">
         <f>IF(I178=H178, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A179" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>359</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+      <c r="A179" s="15">
+        <v>178</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="C179" s="3">
         <v>0</v>
@@ -8753,32 +8214,31 @@
         <v>0</v>
       </c>
       <c r="G179" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="I179" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J179" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="K179"/>
-      <c r="L179" s="9" t="s">
-        <v>437</v>
+        <v>253</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="L179" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="M179" s="4" t="b">
         <f>IF(I179=H179, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" ht="68" x14ac:dyDescent="0.2">
-      <c r="A180" s="2" t="s">
-        <v>172</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="A180" s="15">
+        <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>360</v>
+        <v>184</v>
       </c>
       <c r="C180" s="3">
         <v>0</v>
@@ -8787,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="E180" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180" s="3">
         <v>0</v>
@@ -8796,27 +8256,27 @@
         <v>0</v>
       </c>
       <c r="H180" s="5" t="s">
-        <v>437</v>
+        <v>252</v>
       </c>
       <c r="I180" s="9" t="s">
-        <v>437</v>
+        <v>252</v>
       </c>
       <c r="J180" s="4"/>
       <c r="K180"/>
       <c r="L180" s="9" t="s">
-        <v>437</v>
+        <v>252</v>
       </c>
       <c r="M180" s="4" t="b">
         <f>IF(I180=H180, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="85" x14ac:dyDescent="0.2">
-      <c r="A181" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>362</v>
+    <row r="181" spans="1:13" ht="189" x14ac:dyDescent="0.2">
+      <c r="A181" s="15">
+        <v>180</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>185</v>
       </c>
       <c r="C181" s="3">
         <v>0</v>
@@ -8828,75 +8288,69 @@
         <v>0</v>
       </c>
       <c r="F181" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181" s="2">
         <v>0</v>
       </c>
       <c r="H181" s="5" t="s">
-        <v>437</v>
+        <v>251</v>
       </c>
       <c r="I181" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J181" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="K181"/>
-      <c r="L181" s="9" t="s">
-        <v>437</v>
+        <v>260</v>
+      </c>
+      <c r="L181" s="5" t="s">
+        <v>251</v>
       </c>
       <c r="M181" s="4" t="b">
         <f>IF(I181=H181, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" ht="153" x14ac:dyDescent="0.2">
-      <c r="A182" s="2" t="s">
-        <v>176</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="A182" s="15">
+        <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>364</v>
+        <v>186</v>
       </c>
       <c r="C182" s="3">
         <v>0</v>
       </c>
       <c r="D182" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E182" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182" s="3">
         <v>0</v>
       </c>
       <c r="G182" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182" s="5" t="s">
-        <v>446</v>
+        <v>257</v>
       </c>
       <c r="I182" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="J182" s="4" t="s">
-        <v>431</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="J182" s="4"/>
       <c r="K182"/>
       <c r="L182" s="9" t="s">
-        <v>446</v>
+        <v>257</v>
       </c>
       <c r="M182" s="4" t="b">
         <f>IF(I182=H182, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="170" x14ac:dyDescent="0.2">
-      <c r="A183" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>368</v>
+    <row r="183" spans="1:13" ht="147" x14ac:dyDescent="0.2">
+      <c r="A183" s="15">
+        <v>182</v>
+      </c>
+      <c r="B183" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="C183" s="3">
         <v>0</v>
@@ -8914,29 +8368,25 @@
         <v>0</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>441</v>
+        <v>253</v>
       </c>
       <c r="I183" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="J183" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="K183"/>
-      <c r="L183" s="9" t="s">
-        <v>441</v>
+        <v>249</v>
+      </c>
+      <c r="L183" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="M183" s="4" t="b">
         <f>IF(I183=H183, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" ht="85" x14ac:dyDescent="0.2">
-      <c r="A184" s="2" t="s">
-        <v>181</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="A184" s="15">
+        <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>369</v>
+        <v>188</v>
       </c>
       <c r="C184" s="3">
         <v>0</v>
@@ -8948,33 +8398,35 @@
         <v>0</v>
       </c>
       <c r="F184" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G184" s="2">
         <v>0</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>437</v>
+        <v>251</v>
       </c>
       <c r="I184" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="J184" s="4"/>
+        <v>251</v>
+      </c>
+      <c r="J184" s="4" t="s">
+        <v>245</v>
+      </c>
       <c r="K184"/>
       <c r="L184" s="9" t="s">
-        <v>437</v>
+        <v>251</v>
       </c>
       <c r="M184" s="4" t="b">
         <f>IF(I184=H184, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="136" x14ac:dyDescent="0.2">
-      <c r="A185" s="2" t="s">
+    <row r="185" spans="1:13" ht="126" x14ac:dyDescent="0.2">
+      <c r="A185" s="15">
         <v>184</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>372</v>
+      <c r="B185" s="12" t="s">
+        <v>189</v>
       </c>
       <c r="C185" s="3">
         <v>0</v>
@@ -8992,36 +8444,34 @@
         <v>0</v>
       </c>
       <c r="H185" s="5" t="s">
-        <v>440</v>
+        <v>252</v>
       </c>
       <c r="I185" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="J185" s="4"/>
-      <c r="K185"/>
-      <c r="L185" s="9" t="s">
-        <v>440</v>
+        <v>249</v>
+      </c>
+      <c r="L185" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="M185" s="4" t="b">
         <f>IF(I185=H185, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" ht="119" x14ac:dyDescent="0.2">
-      <c r="A186" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>374</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" ht="357" x14ac:dyDescent="0.2">
+      <c r="A186" s="15">
+        <v>185</v>
+      </c>
+      <c r="B186" s="12" t="s">
+        <v>190</v>
       </c>
       <c r="C186" s="3">
         <v>0</v>
       </c>
       <c r="D186" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E186" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186" s="3">
         <v>0</v>
@@ -9030,27 +8480,28 @@
         <v>0</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>445</v>
+        <v>249</v>
       </c>
       <c r="I186" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="J186" s="4"/>
-      <c r="K186"/>
-      <c r="L186" s="9" t="s">
-        <v>445</v>
+        <v>256</v>
+      </c>
+      <c r="K186" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="L186" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="M186" s="4" t="b">
         <f>IF(I186=H186, TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" ht="119" x14ac:dyDescent="0.2">
-      <c r="A187" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>376</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="168" x14ac:dyDescent="0.2">
+      <c r="A187" s="15">
+        <v>186</v>
+      </c>
+      <c r="B187" s="12" t="s">
+        <v>191</v>
       </c>
       <c r="C187" s="3">
         <v>0</v>
@@ -9059,39 +8510,35 @@
         <v>0</v>
       </c>
       <c r="E187" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G187" s="2">
         <v>0</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>439</v>
+        <v>252</v>
       </c>
       <c r="I187" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="J187" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="K187"/>
-      <c r="L187" s="9" t="s">
-        <v>439</v>
+        <v>253</v>
+      </c>
+      <c r="L187" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="M187" s="4" t="b">
         <f>IF(I187=H187, TRUE, FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:13" ht="153" x14ac:dyDescent="0.2">
-      <c r="A188" s="2" t="s">
+      <c r="A188" s="15">
+        <v>187</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>380</v>
-      </c>
       <c r="C188" s="3">
         <v>1</v>
       </c>
@@ -9108,15 +8555,15 @@
         <v>0</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>442</v>
+        <v>254</v>
       </c>
       <c r="I188" s="9" t="s">
-        <v>442</v>
+        <v>254</v>
       </c>
       <c r="J188" s="4"/>
       <c r="K188"/>
       <c r="L188" s="9" t="s">
-        <v>442</v>
+        <v>254</v>
       </c>
       <c r="M188" s="4" t="b">
         <f>IF(I188=H188, TRUE, FALSE)</f>
@@ -9124,12 +8571,12 @@
       </c>
     </row>
     <row r="189" spans="1:13" ht="102" x14ac:dyDescent="0.2">
-      <c r="A189" s="2" t="s">
+      <c r="A189" s="15">
+        <v>188</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>381</v>
-      </c>
       <c r="C189" s="3">
         <v>0</v>
       </c>
@@ -9146,17 +8593,17 @@
         <v>0</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="I189" s="9" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="J189" s="4"/>
       <c r="K189" t="s">
-        <v>458</v>
+        <v>270</v>
       </c>
       <c r="L189" s="9" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="M189" s="4" t="b">
         <f>IF(I189=H189, TRUE, FALSE)</f>
@@ -9164,9 +8611,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N189" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:M189" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M189">
-      <sortCondition ref="M1:M189"/>
+      <sortCondition ref="A1:A189"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
